--- a/Integration Services Project/Integration Services Project/PresupuestodeVentas_v2020.xlsx
+++ b/Integration Services Project/Integration Services Project/PresupuestodeVentas_v2020.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\60021628\Documents\Data\Personal\UADE\Cuatrimestre I 2020\TPO\DataSources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\60021628\Documents\Data\Personal\UADE\Cuatrimestre II 2020\TPO\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2B187A-55A2-4931-98BC-EE3A6DF8D7FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PPTO 2016" sheetId="7" r:id="rId1"/>
     <sheet name="PPTO 2017" sheetId="5" r:id="rId2"/>
     <sheet name="PPTO 2018" sheetId="3" r:id="rId3"/>
     <sheet name="PPTO 2019" sheetId="6" r:id="rId4"/>
+    <sheet name="PPTO 2020" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,18 +29,18 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" sourceFile="C:\Users\ricar\Downloads\Neptuno.mdb" keepAlive="1" name="Neptuno" description="Nombre del cliente, fecha de pedido y cobro de cargo para cada pedido." type="5" refreshedVersion="5">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" sourceFile="C:\Users\ricar\Downloads\Neptuno.mdb" keepAlive="1" name="Neptuno" description="Nombre del cliente, fecha de pedido y cobro de cargo para cada pedido." type="5" refreshedVersion="5">
     <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;User ID=Admin;Data Source=C:\Users\ricar\Downloads\Neptuno.mdb;Mode=Share Deny Write;Extended Properties=&quot;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Engine Type=5;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False;Jet OLEDB:Bypass UserInfo Validation=False;Jet OLEDB:Limited DB Caching=False;Jet OLEDB:Bypass ChoiceField Validation=False" command="Pedidos" commandType="3"/>
   </connection>
-  <connection id="2" sourceFile="C:\Users\ricar\Google Drive\SSTD\SSD Trabajo Práctico\TP Integrador\Neptuno.mdb" keepAlive="1" name="Neptuno1" type="5" refreshedVersion="5">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" sourceFile="C:\Users\ricar\Google Drive\SSTD\SSD Trabajo Práctico\TP Integrador\Neptuno.mdb" keepAlive="1" name="Neptuno1" type="5" refreshedVersion="5">
     <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;User ID=Admin;Data Source=C:\Users\ricar\Google Drive\SSTD\SSD Trabajo Práctico\TP Integrador\Neptuno.mdb;Mode=Share Deny Write;Extended Properties=&quot;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Engine Type=5;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False;Jet OLEDB:Bypass UserInfo Validation=False;Jet OLEDB:Limited DB Caching=False;Jet OLEDB:Bypass ChoiceField Validation=False" command="Presup Base" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="31">
   <si>
     <t>Finlandia</t>
   </si>
@@ -136,7 +138,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -450,11 +452,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60:H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7157,7 +7159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13864,11 +13866,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N146"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:N1"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70:D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20303,10 +20305,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z146"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -28480,4 +28484,8038 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76774886-2766-470D-A59D-ABE569187BDE}">
+  <dimension ref="A1:Z150"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G154" sqref="G154"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2">
+        <v>43831</v>
+      </c>
+      <c r="D1" s="2">
+        <v>43862</v>
+      </c>
+      <c r="E1" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F1" s="2">
+        <v>43922</v>
+      </c>
+      <c r="G1" s="2">
+        <v>43952</v>
+      </c>
+      <c r="H1" s="2">
+        <v>43983</v>
+      </c>
+      <c r="I1" s="2">
+        <v>44013</v>
+      </c>
+      <c r="J1" s="2">
+        <v>44044</v>
+      </c>
+      <c r="K1" s="2">
+        <v>44075</v>
+      </c>
+      <c r="L1" s="2">
+        <v>44105</v>
+      </c>
+      <c r="M1" s="2">
+        <v>44136</v>
+      </c>
+      <c r="N1" s="2">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10212</v>
+      </c>
+      <c r="D2" s="3">
+        <v>21807</v>
+      </c>
+      <c r="E2" s="3">
+        <v>4150</v>
+      </c>
+      <c r="F2" s="3">
+        <v>6905</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1843</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1102</v>
+      </c>
+      <c r="I2" s="3">
+        <v>299</v>
+      </c>
+      <c r="J2" s="3">
+        <v>4599</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1084</v>
+      </c>
+      <c r="L2" s="3">
+        <v>5287</v>
+      </c>
+      <c r="M2" s="3">
+        <v>3908</v>
+      </c>
+      <c r="N2" s="3">
+        <v>2908</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1813</v>
+      </c>
+      <c r="D3" s="3">
+        <v>5525</v>
+      </c>
+      <c r="E3" s="3">
+        <v>849</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1624</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>373</v>
+      </c>
+      <c r="K3" s="3">
+        <v>777</v>
+      </c>
+      <c r="L3" s="3">
+        <v>11633</v>
+      </c>
+      <c r="M3" s="3">
+        <v>7850</v>
+      </c>
+      <c r="N3" s="3">
+        <v>9834</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3">
+        <v>659</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2279</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1324</v>
+      </c>
+      <c r="F4" s="3">
+        <v>607</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I4" s="3">
+        <v>472</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1437</v>
+      </c>
+      <c r="L4" s="3">
+        <v>4269</v>
+      </c>
+      <c r="M4" s="3">
+        <v>774</v>
+      </c>
+      <c r="N4" s="3">
+        <v>2098</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3">
+        <v>908</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2038</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4595</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>591</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1763</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1478</v>
+      </c>
+      <c r="L5" s="3">
+        <v>4412</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1481</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3">
+        <v>7108</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1251</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1626</v>
+      </c>
+      <c r="I6" s="3">
+        <v>3421</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>2153</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2815</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4239</v>
+      </c>
+      <c r="F7" s="3">
+        <v>19025</v>
+      </c>
+      <c r="G7" s="3">
+        <v>391</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2011</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1329</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1285</v>
+      </c>
+      <c r="K7" s="3">
+        <v>7417</v>
+      </c>
+      <c r="L7" s="3">
+        <v>8394</v>
+      </c>
+      <c r="M7" s="3">
+        <v>5512</v>
+      </c>
+      <c r="N7" s="3">
+        <v>4215</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4775</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2555</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1524</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1779</v>
+      </c>
+      <c r="G8" s="3">
+        <v>176</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1095</v>
+      </c>
+      <c r="I8" s="3">
+        <v>4028</v>
+      </c>
+      <c r="J8" s="3">
+        <v>40</v>
+      </c>
+      <c r="K8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1733</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1891</v>
+      </c>
+      <c r="N8" s="3">
+        <v>439</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6629</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2849</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3119</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3784</v>
+      </c>
+      <c r="G9" s="3">
+        <v>659</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1235</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2867</v>
+      </c>
+      <c r="J9" s="3">
+        <v>537</v>
+      </c>
+      <c r="K9" s="3">
+        <v>2632</v>
+      </c>
+      <c r="L9" s="3">
+        <v>5763</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>4896</v>
+      </c>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1072</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>522</v>
+      </c>
+      <c r="F10" s="1">
+        <v>299</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>683</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>306</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>552</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>435</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>417</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>220</v>
+      </c>
+      <c r="E14" s="1">
+        <v>812</v>
+      </c>
+      <c r="F14" s="1">
+        <v>26</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>180</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>35</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>57</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1">
+        <v>452</v>
+      </c>
+      <c r="D16" s="1">
+        <v>100</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1131</v>
+      </c>
+      <c r="F16" s="1">
+        <v>44</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>841</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>146</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>427</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2516</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>817</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>151</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1614</v>
+      </c>
+      <c r="D18" s="1">
+        <v>574</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2028</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1210</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1959</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2445</v>
+      </c>
+      <c r="D19" s="1">
+        <v>938</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1011</v>
+      </c>
+      <c r="G19" s="1">
+        <v>659</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>4238</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1606</v>
+      </c>
+      <c r="M19" s="1">
+        <v>437</v>
+      </c>
+      <c r="N19" s="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1">
+        <v>792</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1928</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>306</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>7950</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1355</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3230</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>425</v>
+      </c>
+      <c r="I21" s="1">
+        <v>477</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3411</v>
+      </c>
+      <c r="D22" s="1">
+        <v>647</v>
+      </c>
+      <c r="E22" s="1">
+        <v>306</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>2787</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1662</v>
+      </c>
+      <c r="K22" s="1">
+        <v>2055</v>
+      </c>
+      <c r="L22" s="1">
+        <v>344</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1290</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>92</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>428</v>
+      </c>
+      <c r="N23" s="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1595</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>298</v>
+      </c>
+      <c r="F24" s="1">
+        <v>4068</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>5654</v>
+      </c>
+      <c r="K24" s="1">
+        <v>565</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="3">
+        <v>938</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1796</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2045</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>717</v>
+      </c>
+      <c r="F26" s="3">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="3">
+        <v>867</v>
+      </c>
+      <c r="D27" s="3">
+        <v>488</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1325</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1230</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="3">
+        <v>320</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>49</v>
+      </c>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2204</v>
+      </c>
+      <c r="D29" s="3">
+        <v>765</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>622</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>777</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="3">
+        <v>4739</v>
+      </c>
+      <c r="D30" s="3">
+        <v>2484</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1468</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>2683</v>
+      </c>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1037</v>
+      </c>
+      <c r="D31" s="3">
+        <v>295</v>
+      </c>
+      <c r="E31" s="3">
+        <v>985</v>
+      </c>
+      <c r="F31" s="3">
+        <v>133</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>644</v>
+      </c>
+      <c r="I31" s="3">
+        <v>603</v>
+      </c>
+      <c r="J31" s="3">
+        <v>3482</v>
+      </c>
+      <c r="K31" s="3">
+        <v>1165</v>
+      </c>
+      <c r="L31" s="3">
+        <v>1297</v>
+      </c>
+      <c r="M31" s="3">
+        <v>394</v>
+      </c>
+      <c r="N31" s="3">
+        <v>3154</v>
+      </c>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2539</v>
+      </c>
+      <c r="F32" s="3">
+        <v>340</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>725</v>
+      </c>
+      <c r="J32" s="3">
+        <v>2179</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>214</v>
+      </c>
+      <c r="M32" s="3">
+        <v>612</v>
+      </c>
+      <c r="N32" s="3">
+        <v>97</v>
+      </c>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1059</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1153</v>
+      </c>
+      <c r="E33" s="3">
+        <v>19802</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2095</v>
+      </c>
+      <c r="G33" s="3">
+        <v>3043</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1139</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>5146</v>
+      </c>
+      <c r="M33" s="3">
+        <v>1666</v>
+      </c>
+      <c r="N33" s="3">
+        <v>1853</v>
+      </c>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="1">
+        <v>805</v>
+      </c>
+      <c r="D34" s="1">
+        <v>968</v>
+      </c>
+      <c r="E34" s="1">
+        <v>17346</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1606</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1815</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>841</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>2973</v>
+      </c>
+      <c r="M34">
+        <v>1025</v>
+      </c>
+      <c r="N34">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="1">
+        <v>978</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>626</v>
+      </c>
+      <c r="F35" s="1">
+        <v>436</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>1710</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="1">
+        <v>164</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1790</v>
+      </c>
+      <c r="E36" s="1">
+        <v>920</v>
+      </c>
+      <c r="F36" s="1">
+        <v>804</v>
+      </c>
+      <c r="G36" s="1">
+        <v>374</v>
+      </c>
+      <c r="H36">
+        <v>489</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>3505</v>
+      </c>
+      <c r="K36">
+        <v>351</v>
+      </c>
+      <c r="L36">
+        <v>998</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>349</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>279</v>
+      </c>
+      <c r="K37">
+        <v>321</v>
+      </c>
+      <c r="L37">
+        <v>530</v>
+      </c>
+      <c r="M37">
+        <v>527</v>
+      </c>
+      <c r="N37">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="1">
+        <v>339</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>222</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>634</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>3649</v>
+      </c>
+      <c r="K38">
+        <v>1373</v>
+      </c>
+      <c r="L38">
+        <v>160</v>
+      </c>
+      <c r="M38">
+        <v>1149</v>
+      </c>
+      <c r="N38">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3875</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1160</v>
+      </c>
+      <c r="E39" s="1">
+        <v>337</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2475</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>951</v>
+      </c>
+      <c r="J39">
+        <v>1138</v>
+      </c>
+      <c r="K39">
+        <v>208</v>
+      </c>
+      <c r="L39">
+        <v>376</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1444</v>
+      </c>
+      <c r="D40" s="1">
+        <v>4307</v>
+      </c>
+      <c r="E40" s="1">
+        <v>951</v>
+      </c>
+      <c r="F40" s="1">
+        <v>207</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>128</v>
+      </c>
+      <c r="I40">
+        <v>479</v>
+      </c>
+      <c r="J40">
+        <v>26</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="1">
+        <v>476</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2430</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>356</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="3">
+        <v>86</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2220</v>
+      </c>
+      <c r="F42" s="3">
+        <v>169</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>3792</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>174</v>
+      </c>
+      <c r="M42" s="3">
+        <v>500</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>236</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2824</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>6507</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>4003</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>781</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2095</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>561</v>
+      </c>
+      <c r="I45" s="3">
+        <v>7216</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>6788</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1137</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>768</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>972</v>
+      </c>
+      <c r="F47" s="3">
+        <v>59</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1006</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1019</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="3">
+        <v>84</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1132</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>411</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="3">
+        <v>112</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>5177</v>
+      </c>
+      <c r="F49" s="3">
+        <v>2347</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>632</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>2004</v>
+      </c>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="1">
+        <v>12866</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>100</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0</v>
+      </c>
+      <c r="L50" s="1">
+        <v>230</v>
+      </c>
+      <c r="M50" s="1">
+        <v>0</v>
+      </c>
+      <c r="N50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>2312</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
+        <v>465</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0</v>
+      </c>
+      <c r="L51" s="1">
+        <v>0</v>
+      </c>
+      <c r="M51" s="1">
+        <v>0</v>
+      </c>
+      <c r="N51" s="1">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="1">
+        <v>454</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>473</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
+        <v>262</v>
+      </c>
+      <c r="J52" s="1">
+        <v>651</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>6076</v>
+      </c>
+      <c r="M52" s="1">
+        <v>0</v>
+      </c>
+      <c r="N52" s="1">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3">
+        <v>4242</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>310</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0</v>
+      </c>
+      <c r="L53" s="1">
+        <v>2845</v>
+      </c>
+      <c r="M53" s="1">
+        <v>0</v>
+      </c>
+      <c r="N53" s="1">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <v>335</v>
+      </c>
+      <c r="J54" s="1">
+        <v>312</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0</v>
+      </c>
+      <c r="L54" s="1">
+        <v>0</v>
+      </c>
+      <c r="M54" s="1">
+        <v>0</v>
+      </c>
+      <c r="N54" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="3">
+        <v>1201</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>961</v>
+      </c>
+      <c r="I55" s="3">
+        <v>602</v>
+      </c>
+      <c r="J55" s="3">
+        <v>948</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0</v>
+      </c>
+      <c r="L55" s="1">
+        <v>0</v>
+      </c>
+      <c r="M55" s="1">
+        <v>0</v>
+      </c>
+      <c r="N55" s="3">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" s="1">
+        <v>22</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
+        <v>556</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1">
+        <v>707</v>
+      </c>
+      <c r="L56" s="1">
+        <v>685</v>
+      </c>
+      <c r="M56" s="1">
+        <v>1141</v>
+      </c>
+      <c r="N56" s="1">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="1">
+        <v>392</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>397</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+      <c r="J57" s="1">
+        <v>312</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0</v>
+      </c>
+      <c r="M57" s="1">
+        <v>0</v>
+      </c>
+      <c r="N57" s="1">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1664</v>
+      </c>
+      <c r="E58" s="3">
+        <v>174</v>
+      </c>
+      <c r="F58" s="3">
+        <v>214</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>601</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>1668</v>
+      </c>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="3"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1314</v>
+      </c>
+      <c r="E59" s="3">
+        <v>119</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>391</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1792</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3353</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
+        <v>341</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>6060</v>
+      </c>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0</v>
+      </c>
+      <c r="D60" s="3">
+        <v>653</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>98</v>
+      </c>
+      <c r="H60" s="3">
+        <v>2467</v>
+      </c>
+      <c r="I60" s="3">
+        <v>2707</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
+        <v>6197</v>
+      </c>
+      <c r="M60" s="3">
+        <v>5258</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="3"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3650</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>626</v>
+      </c>
+      <c r="K61" s="3">
+        <v>2343</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3"/>
+      <c r="W61" s="3"/>
+      <c r="X61" s="3"/>
+      <c r="Y61" s="3"/>
+      <c r="Z61" s="3"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0</v>
+      </c>
+      <c r="D62" s="3">
+        <v>857</v>
+      </c>
+      <c r="E62" s="3">
+        <v>522</v>
+      </c>
+      <c r="F62" s="3">
+        <v>235</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>304</v>
+      </c>
+      <c r="I62" s="3">
+        <v>6197</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="3"/>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0</v>
+      </c>
+      <c r="E63" s="3">
+        <v>341</v>
+      </c>
+      <c r="F63" s="3">
+        <v>449</v>
+      </c>
+      <c r="G63" s="3">
+        <v>1652</v>
+      </c>
+      <c r="H63" s="3">
+        <v>3095</v>
+      </c>
+      <c r="I63" s="3">
+        <v>9775</v>
+      </c>
+      <c r="J63" s="3">
+        <v>5360</v>
+      </c>
+      <c r="K63" s="3">
+        <v>1518</v>
+      </c>
+      <c r="L63" s="3">
+        <v>5310</v>
+      </c>
+      <c r="M63" s="3">
+        <v>6740</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
+      <c r="Y63" s="3"/>
+      <c r="Z63" s="3"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0</v>
+      </c>
+      <c r="D64" s="3">
+        <v>515</v>
+      </c>
+      <c r="E64" s="3">
+        <v>36</v>
+      </c>
+      <c r="F64" s="3">
+        <v>874</v>
+      </c>
+      <c r="G64" s="3">
+        <v>0</v>
+      </c>
+      <c r="H64" s="3">
+        <v>1792</v>
+      </c>
+      <c r="I64" s="3">
+        <v>13727</v>
+      </c>
+      <c r="J64" s="3">
+        <v>0</v>
+      </c>
+      <c r="K64" s="3">
+        <v>303</v>
+      </c>
+      <c r="L64" s="3">
+        <v>5509</v>
+      </c>
+      <c r="M64" s="3">
+        <v>1564</v>
+      </c>
+      <c r="N64" s="3">
+        <v>8068</v>
+      </c>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+      <c r="X64" s="3"/>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="3"/>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0</v>
+      </c>
+      <c r="D65" s="3">
+        <v>1456</v>
+      </c>
+      <c r="E65" s="3">
+        <v>281</v>
+      </c>
+      <c r="F65" s="3">
+        <v>28</v>
+      </c>
+      <c r="G65" s="3">
+        <v>0</v>
+      </c>
+      <c r="H65" s="3">
+        <v>2318</v>
+      </c>
+      <c r="I65" s="3">
+        <v>8253</v>
+      </c>
+      <c r="J65" s="3">
+        <v>965</v>
+      </c>
+      <c r="K65" s="3">
+        <v>532</v>
+      </c>
+      <c r="L65" s="3">
+        <v>15690</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3"/>
+      <c r="X65" s="3"/>
+      <c r="Y65" s="3"/>
+      <c r="Z65" s="3"/>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" s="3">
+        <v>13331</v>
+      </c>
+      <c r="D66" s="3">
+        <v>12969</v>
+      </c>
+      <c r="E66" s="3">
+        <v>113</v>
+      </c>
+      <c r="F66" s="3">
+        <v>17256</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1919</v>
+      </c>
+      <c r="H66" s="3">
+        <v>644</v>
+      </c>
+      <c r="I66" s="3">
+        <v>1668</v>
+      </c>
+      <c r="J66" s="3">
+        <v>331</v>
+      </c>
+      <c r="K66" s="3">
+        <v>2707</v>
+      </c>
+      <c r="L66" s="3">
+        <v>165</v>
+      </c>
+      <c r="M66" s="3">
+        <v>1018</v>
+      </c>
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3"/>
+      <c r="X66" s="3"/>
+      <c r="Y66" s="3"/>
+      <c r="Z66" s="3"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="3">
+        <v>3996</v>
+      </c>
+      <c r="D67" s="3">
+        <v>547</v>
+      </c>
+      <c r="E67" s="3">
+        <v>0</v>
+      </c>
+      <c r="F67" s="3">
+        <v>9853</v>
+      </c>
+      <c r="G67" s="3">
+        <v>7325</v>
+      </c>
+      <c r="H67" s="3">
+        <v>2896</v>
+      </c>
+      <c r="I67" s="3">
+        <v>2467</v>
+      </c>
+      <c r="J67" s="3">
+        <v>970</v>
+      </c>
+      <c r="K67" s="3">
+        <v>1415</v>
+      </c>
+      <c r="L67" s="3">
+        <v>0</v>
+      </c>
+      <c r="M67" s="3">
+        <v>451</v>
+      </c>
+      <c r="N67" s="3">
+        <v>0</v>
+      </c>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" s="3">
+        <v>496</v>
+      </c>
+      <c r="D68" s="3">
+        <v>479</v>
+      </c>
+      <c r="E68" s="3">
+        <v>646</v>
+      </c>
+      <c r="F68" s="3">
+        <v>3389</v>
+      </c>
+      <c r="G68" s="3">
+        <v>444</v>
+      </c>
+      <c r="H68" s="3">
+        <v>2117</v>
+      </c>
+      <c r="I68" s="3">
+        <v>2865</v>
+      </c>
+      <c r="J68" s="3">
+        <v>0</v>
+      </c>
+      <c r="K68" s="3">
+        <v>7009</v>
+      </c>
+      <c r="L68" s="3">
+        <v>1723</v>
+      </c>
+      <c r="M68" s="3">
+        <v>5258</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3"/>
+      <c r="X68" s="3"/>
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="3"/>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" s="3">
+        <v>375</v>
+      </c>
+      <c r="D69" s="3">
+        <v>164</v>
+      </c>
+      <c r="E69" s="3">
+        <v>3815</v>
+      </c>
+      <c r="F69" s="3">
+        <v>0</v>
+      </c>
+      <c r="G69" s="3">
+        <v>98</v>
+      </c>
+      <c r="H69" s="3">
+        <v>893</v>
+      </c>
+      <c r="I69" s="3">
+        <v>7870</v>
+      </c>
+      <c r="J69" s="3">
+        <v>0</v>
+      </c>
+      <c r="K69" s="3">
+        <v>6219</v>
+      </c>
+      <c r="L69" s="3">
+        <v>6197</v>
+      </c>
+      <c r="M69" s="3">
+        <v>1810</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+      <c r="V69" s="3"/>
+      <c r="W69" s="3"/>
+      <c r="X69" s="3"/>
+      <c r="Y69" s="3"/>
+      <c r="Z69" s="3"/>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" s="3">
+        <v>3459</v>
+      </c>
+      <c r="D70" s="3">
+        <v>2363</v>
+      </c>
+      <c r="E70" s="3">
+        <v>391</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1929</v>
+      </c>
+      <c r="G70" s="3">
+        <v>163</v>
+      </c>
+      <c r="H70" s="3">
+        <v>68</v>
+      </c>
+      <c r="I70" s="3">
+        <v>5422</v>
+      </c>
+      <c r="J70" s="3">
+        <v>759</v>
+      </c>
+      <c r="K70" s="3">
+        <v>2365</v>
+      </c>
+      <c r="L70" s="3">
+        <v>4817</v>
+      </c>
+      <c r="M70" s="3">
+        <v>5163</v>
+      </c>
+      <c r="N70" s="3">
+        <v>341</v>
+      </c>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3"/>
+      <c r="X70" s="3"/>
+      <c r="Y70" s="3"/>
+      <c r="Z70" s="3"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" s="3">
+        <v>5076</v>
+      </c>
+      <c r="D71" s="3">
+        <v>3929</v>
+      </c>
+      <c r="E71" s="3">
+        <v>2829</v>
+      </c>
+      <c r="F71" s="3">
+        <v>15388</v>
+      </c>
+      <c r="G71" s="3">
+        <v>310</v>
+      </c>
+      <c r="H71" s="3">
+        <v>978</v>
+      </c>
+      <c r="I71" s="3">
+        <v>5310</v>
+      </c>
+      <c r="J71" s="3">
+        <v>1252</v>
+      </c>
+      <c r="K71" s="3">
+        <v>5319</v>
+      </c>
+      <c r="L71" s="3">
+        <v>6798</v>
+      </c>
+      <c r="M71" s="3">
+        <v>2343</v>
+      </c>
+      <c r="N71" s="3">
+        <v>828</v>
+      </c>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3"/>
+      <c r="V71" s="3"/>
+      <c r="W71" s="3"/>
+      <c r="X71" s="3"/>
+      <c r="Y71" s="3"/>
+      <c r="Z71" s="3"/>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" s="3">
+        <v>3803</v>
+      </c>
+      <c r="D72" s="3">
+        <v>414</v>
+      </c>
+      <c r="E72" s="3">
+        <v>3292</v>
+      </c>
+      <c r="F72" s="3">
+        <v>3072</v>
+      </c>
+      <c r="G72" s="3">
+        <v>369</v>
+      </c>
+      <c r="H72" s="3">
+        <v>0</v>
+      </c>
+      <c r="I72" s="3">
+        <v>0</v>
+      </c>
+      <c r="J72" s="3">
+        <v>0</v>
+      </c>
+      <c r="K72" s="3">
+        <v>359</v>
+      </c>
+      <c r="L72" s="3">
+        <v>160</v>
+      </c>
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3"/>
+      <c r="W72" s="3"/>
+      <c r="X72" s="3"/>
+      <c r="Y72" s="3"/>
+      <c r="Z72" s="3"/>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" s="3">
+        <v>6850</v>
+      </c>
+      <c r="D73" s="3">
+        <v>4344</v>
+      </c>
+      <c r="E73" s="3">
+        <v>6116</v>
+      </c>
+      <c r="F73" s="3">
+        <v>474</v>
+      </c>
+      <c r="G73" s="3">
+        <v>1454</v>
+      </c>
+      <c r="H73" s="3">
+        <v>1544</v>
+      </c>
+      <c r="I73" s="3">
+        <v>212</v>
+      </c>
+      <c r="J73" s="3">
+        <v>0</v>
+      </c>
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>46</v>
+      </c>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+      <c r="V73" s="3"/>
+      <c r="W73" s="3"/>
+      <c r="X73" s="3"/>
+      <c r="Y73" s="3"/>
+      <c r="Z73" s="3"/>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74" s="1">
+        <v>177</v>
+      </c>
+      <c r="D74" s="3">
+        <v>292</v>
+      </c>
+      <c r="E74" s="3">
+        <v>0</v>
+      </c>
+      <c r="F74" s="3">
+        <v>346</v>
+      </c>
+      <c r="G74" s="1">
+        <v>177</v>
+      </c>
+      <c r="H74" s="3">
+        <v>0</v>
+      </c>
+      <c r="I74" s="1">
+        <v>177</v>
+      </c>
+      <c r="J74" s="3">
+        <v>1096</v>
+      </c>
+      <c r="K74" s="1">
+        <v>177</v>
+      </c>
+      <c r="L74" s="3">
+        <v>659</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
+      <c r="X74" s="3"/>
+      <c r="Y74" s="3"/>
+      <c r="Z74" s="3"/>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75" s="1">
+        <v>385</v>
+      </c>
+      <c r="D75" s="3">
+        <v>622</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0</v>
+      </c>
+      <c r="F75" s="3">
+        <v>0</v>
+      </c>
+      <c r="G75" s="1">
+        <v>385</v>
+      </c>
+      <c r="H75" s="3">
+        <v>0</v>
+      </c>
+      <c r="I75" s="1">
+        <v>385</v>
+      </c>
+      <c r="J75" s="3">
+        <v>0</v>
+      </c>
+      <c r="K75" s="1">
+        <v>385</v>
+      </c>
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>207</v>
+      </c>
+      <c r="N75" s="3">
+        <v>447</v>
+      </c>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+      <c r="V75" s="3"/>
+      <c r="W75" s="3"/>
+      <c r="X75" s="3"/>
+      <c r="Y75" s="3"/>
+      <c r="Z75" s="3"/>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" s="1">
+        <v>128</v>
+      </c>
+      <c r="D76" s="3">
+        <v>229</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1">
+        <v>128</v>
+      </c>
+      <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="1">
+        <v>128</v>
+      </c>
+      <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="1">
+        <v>128</v>
+      </c>
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3">
+        <v>1856</v>
+      </c>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3"/>
+      <c r="X76" s="3"/>
+      <c r="Y76" s="3"/>
+      <c r="Z76" s="3"/>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0</v>
+      </c>
+      <c r="F77" s="3">
+        <v>563</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0</v>
+      </c>
+      <c r="H77" s="3">
+        <v>2333</v>
+      </c>
+      <c r="I77" s="1">
+        <v>0</v>
+      </c>
+      <c r="J77" s="3">
+        <v>0</v>
+      </c>
+      <c r="K77" s="1">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3">
+        <v>258</v>
+      </c>
+      <c r="M77" s="3">
+        <v>2139</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3"/>
+      <c r="T77" s="3"/>
+      <c r="U77" s="3"/>
+      <c r="V77" s="3"/>
+      <c r="W77" s="3"/>
+      <c r="X77" s="3"/>
+      <c r="Y77" s="3"/>
+      <c r="Z77" s="3"/>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>27</v>
+      </c>
+      <c r="C78" s="1">
+        <v>235</v>
+      </c>
+      <c r="D78" s="3">
+        <v>387</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3">
+        <v>204</v>
+      </c>
+      <c r="G78" s="1">
+        <v>235</v>
+      </c>
+      <c r="H78" s="3">
+        <v>0</v>
+      </c>
+      <c r="I78" s="1">
+        <v>235</v>
+      </c>
+      <c r="J78" s="3">
+        <v>139</v>
+      </c>
+      <c r="K78" s="1">
+        <v>235</v>
+      </c>
+      <c r="L78" s="3">
+        <v>0</v>
+      </c>
+      <c r="M78" s="3">
+        <v>833</v>
+      </c>
+      <c r="N78" s="3">
+        <v>0</v>
+      </c>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3"/>
+      <c r="S78" s="3"/>
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
+      <c r="X78" s="3"/>
+      <c r="Y78" s="3"/>
+      <c r="Z78" s="3"/>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" s="1">
+        <v>484</v>
+      </c>
+      <c r="D79" s="3">
+        <v>899</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0</v>
+      </c>
+      <c r="F79" s="3">
+        <v>0</v>
+      </c>
+      <c r="G79" s="1">
+        <v>484</v>
+      </c>
+      <c r="H79" s="3">
+        <v>0</v>
+      </c>
+      <c r="I79" s="1">
+        <v>484</v>
+      </c>
+      <c r="J79" s="3">
+        <v>0</v>
+      </c>
+      <c r="K79" s="1">
+        <v>484</v>
+      </c>
+      <c r="L79" s="3">
+        <v>0</v>
+      </c>
+      <c r="M79" s="3">
+        <v>0</v>
+      </c>
+      <c r="N79" s="3">
+        <v>0</v>
+      </c>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
+      <c r="T79" s="3"/>
+      <c r="U79" s="3"/>
+      <c r="V79" s="3"/>
+      <c r="W79" s="3"/>
+      <c r="X79" s="3"/>
+      <c r="Y79" s="3"/>
+      <c r="Z79" s="3"/>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="3">
+        <v>3571</v>
+      </c>
+      <c r="D80" s="3">
+        <v>406</v>
+      </c>
+      <c r="E80" s="3">
+        <v>3271</v>
+      </c>
+      <c r="F80" s="3">
+        <v>52</v>
+      </c>
+      <c r="G80" s="3">
+        <v>0</v>
+      </c>
+      <c r="H80" s="3">
+        <v>425</v>
+      </c>
+      <c r="I80" s="3">
+        <v>100</v>
+      </c>
+      <c r="J80" s="3">
+        <v>1291</v>
+      </c>
+      <c r="K80" s="3">
+        <v>0</v>
+      </c>
+      <c r="L80" s="3">
+        <v>0</v>
+      </c>
+      <c r="M80" s="3">
+        <v>460</v>
+      </c>
+      <c r="N80" s="3">
+        <v>2158</v>
+      </c>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3"/>
+      <c r="S80" s="3"/>
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3"/>
+      <c r="X80" s="3"/>
+      <c r="Y80" s="3"/>
+      <c r="Z80" s="3"/>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" s="3">
+        <v>0</v>
+      </c>
+      <c r="D81" s="3">
+        <v>1898</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1996</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>577</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
+        <v>4108</v>
+      </c>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+      <c r="S81" s="3"/>
+      <c r="T81" s="3"/>
+      <c r="U81" s="3"/>
+      <c r="V81" s="3"/>
+      <c r="W81" s="3"/>
+      <c r="X81" s="3"/>
+      <c r="Y81" s="3"/>
+      <c r="Z81" s="3"/>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" s="3">
+        <v>2419</v>
+      </c>
+      <c r="D82" s="3">
+        <v>1538</v>
+      </c>
+      <c r="E82" s="3">
+        <v>0</v>
+      </c>
+      <c r="F82" s="3">
+        <v>0</v>
+      </c>
+      <c r="G82" s="3">
+        <v>1026</v>
+      </c>
+      <c r="H82" s="3">
+        <v>0</v>
+      </c>
+      <c r="I82" s="3">
+        <v>0</v>
+      </c>
+      <c r="J82" s="3">
+        <v>0</v>
+      </c>
+      <c r="K82" s="3">
+        <v>485</v>
+      </c>
+      <c r="L82" s="3">
+        <v>0</v>
+      </c>
+      <c r="M82" s="3">
+        <v>366</v>
+      </c>
+      <c r="N82" s="3">
+        <v>2971</v>
+      </c>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" s="3">
+        <v>707</v>
+      </c>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>289</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>958</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>2515</v>
+      </c>
+      <c r="K83" s="3">
+        <v>2573</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>385</v>
+      </c>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
+      <c r="V83" s="3"/>
+      <c r="W83" s="3"/>
+      <c r="X83" s="3"/>
+      <c r="Y83" s="3"/>
+      <c r="Z83" s="3"/>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84" s="3">
+        <v>682</v>
+      </c>
+      <c r="D84" s="3">
+        <v>1095</v>
+      </c>
+      <c r="E84" s="3">
+        <v>335</v>
+      </c>
+      <c r="F84" s="3">
+        <v>0</v>
+      </c>
+      <c r="G84" s="3">
+        <v>0</v>
+      </c>
+      <c r="H84" s="3">
+        <v>0</v>
+      </c>
+      <c r="I84" s="3">
+        <v>0</v>
+      </c>
+      <c r="J84" s="3">
+        <v>0</v>
+      </c>
+      <c r="K84" s="3">
+        <v>849</v>
+      </c>
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>2711</v>
+      </c>
+      <c r="N84" s="3">
+        <v>157</v>
+      </c>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
+      <c r="V84" s="3"/>
+      <c r="W84" s="3"/>
+      <c r="X84" s="3"/>
+      <c r="Y84" s="3"/>
+      <c r="Z84" s="3"/>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s">
+        <v>26</v>
+      </c>
+      <c r="C85" s="3">
+        <v>641</v>
+      </c>
+      <c r="D85" s="3">
+        <v>0</v>
+      </c>
+      <c r="E85" s="3">
+        <v>1461</v>
+      </c>
+      <c r="F85" s="3">
+        <v>223</v>
+      </c>
+      <c r="G85" s="3">
+        <v>0</v>
+      </c>
+      <c r="H85" s="3">
+        <v>2287</v>
+      </c>
+      <c r="I85" s="3">
+        <v>0</v>
+      </c>
+      <c r="J85" s="3">
+        <v>0</v>
+      </c>
+      <c r="K85" s="3">
+        <v>1530</v>
+      </c>
+      <c r="L85" s="3">
+        <v>1179</v>
+      </c>
+      <c r="M85" s="3">
+        <v>1585</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3"/>
+      <c r="S85" s="3"/>
+      <c r="T85" s="3"/>
+      <c r="U85" s="3"/>
+      <c r="V85" s="3"/>
+      <c r="W85" s="3"/>
+      <c r="X85" s="3"/>
+      <c r="Y85" s="3"/>
+      <c r="Z85" s="3"/>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" t="s">
+        <v>27</v>
+      </c>
+      <c r="C86" s="3">
+        <v>686</v>
+      </c>
+      <c r="D86" s="3">
+        <v>852</v>
+      </c>
+      <c r="E86" s="3">
+        <v>741</v>
+      </c>
+      <c r="F86" s="3">
+        <v>0</v>
+      </c>
+      <c r="G86" s="3">
+        <v>0</v>
+      </c>
+      <c r="H86" s="3">
+        <v>1816</v>
+      </c>
+      <c r="I86" s="3">
+        <v>1019</v>
+      </c>
+      <c r="J86" s="3">
+        <v>4995</v>
+      </c>
+      <c r="K86" s="3">
+        <v>1283</v>
+      </c>
+      <c r="L86" s="3">
+        <v>1391</v>
+      </c>
+      <c r="M86" s="3">
+        <v>286</v>
+      </c>
+      <c r="N86" s="3">
+        <v>2490</v>
+      </c>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3"/>
+      <c r="S86" s="3"/>
+      <c r="T86" s="3"/>
+      <c r="U86" s="3"/>
+      <c r="V86" s="3"/>
+      <c r="W86" s="3"/>
+      <c r="X86" s="3"/>
+      <c r="Y86" s="3"/>
+      <c r="Z86" s="3"/>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" s="3">
+        <v>1150</v>
+      </c>
+      <c r="D87" s="3">
+        <v>244</v>
+      </c>
+      <c r="E87" s="3">
+        <v>2535</v>
+      </c>
+      <c r="F87" s="3">
+        <v>0</v>
+      </c>
+      <c r="G87" s="3">
+        <v>104</v>
+      </c>
+      <c r="H87" s="3">
+        <v>0</v>
+      </c>
+      <c r="I87" s="3">
+        <v>147</v>
+      </c>
+      <c r="J87" s="3">
+        <v>0</v>
+      </c>
+      <c r="K87" s="3">
+        <v>1217</v>
+      </c>
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>902</v>
+      </c>
+      <c r="N87" s="3">
+        <v>1392</v>
+      </c>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3"/>
+      <c r="S87" s="3"/>
+      <c r="T87" s="3"/>
+      <c r="U87" s="3"/>
+      <c r="V87" s="3"/>
+      <c r="W87" s="3"/>
+      <c r="X87" s="3"/>
+      <c r="Y87" s="3"/>
+      <c r="Z87" s="3"/>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" s="3">
+        <v>0</v>
+      </c>
+      <c r="D88" s="3">
+        <v>0</v>
+      </c>
+      <c r="E88" s="3">
+        <v>0</v>
+      </c>
+      <c r="F88" s="3">
+        <v>724</v>
+      </c>
+      <c r="G88" s="3">
+        <v>0</v>
+      </c>
+      <c r="H88" s="3">
+        <v>0</v>
+      </c>
+      <c r="I88" s="3">
+        <v>0</v>
+      </c>
+      <c r="J88" s="3">
+        <v>681</v>
+      </c>
+      <c r="K88" s="3">
+        <v>94</v>
+      </c>
+      <c r="L88" s="3">
+        <v>788</v>
+      </c>
+      <c r="M88" s="3">
+        <v>337</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3"/>
+      <c r="S88" s="3"/>
+      <c r="T88" s="3"/>
+      <c r="U88" s="3"/>
+      <c r="V88" s="3"/>
+      <c r="W88" s="3"/>
+      <c r="X88" s="3"/>
+      <c r="Y88" s="3"/>
+      <c r="Z88" s="3"/>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" s="3">
+        <v>0</v>
+      </c>
+      <c r="D89" s="3">
+        <v>32028</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
+        <v>13762</v>
+      </c>
+      <c r="L89" s="3">
+        <v>245</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3"/>
+      <c r="S89" s="3"/>
+      <c r="T89" s="3"/>
+      <c r="U89" s="3"/>
+      <c r="V89" s="3"/>
+      <c r="W89" s="3"/>
+      <c r="X89" s="3"/>
+      <c r="Y89" s="3"/>
+      <c r="Z89" s="3"/>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" t="s">
+        <v>26</v>
+      </c>
+      <c r="C90" s="3">
+        <v>0</v>
+      </c>
+      <c r="D90" s="3">
+        <v>1342</v>
+      </c>
+      <c r="E90" s="3">
+        <v>1412</v>
+      </c>
+      <c r="F90" s="3">
+        <v>0</v>
+      </c>
+      <c r="G90" s="3">
+        <v>0</v>
+      </c>
+      <c r="H90" s="3">
+        <v>0</v>
+      </c>
+      <c r="I90" s="3">
+        <v>0</v>
+      </c>
+      <c r="J90" s="3">
+        <v>774</v>
+      </c>
+      <c r="K90" s="3">
+        <v>0</v>
+      </c>
+      <c r="L90" s="3">
+        <v>0</v>
+      </c>
+      <c r="M90" s="3">
+        <v>2192</v>
+      </c>
+      <c r="N90" s="3">
+        <v>0</v>
+      </c>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91" s="3">
+        <v>0</v>
+      </c>
+      <c r="D91" s="3">
+        <v>1184</v>
+      </c>
+      <c r="E91" s="3">
+        <v>890</v>
+      </c>
+      <c r="F91" s="3">
+        <v>1138</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>234</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3"/>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
+      <c r="R91" s="3"/>
+      <c r="S91" s="3"/>
+      <c r="T91" s="3"/>
+      <c r="U91" s="3"/>
+      <c r="V91" s="3"/>
+      <c r="W91" s="3"/>
+      <c r="X91" s="3"/>
+      <c r="Y91" s="3"/>
+      <c r="Z91" s="3"/>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" t="s">
+        <v>28</v>
+      </c>
+      <c r="C92" s="3">
+        <v>0</v>
+      </c>
+      <c r="D92" s="3">
+        <v>0</v>
+      </c>
+      <c r="E92" s="3">
+        <v>869</v>
+      </c>
+      <c r="F92" s="3">
+        <v>0</v>
+      </c>
+      <c r="G92" s="3">
+        <v>0</v>
+      </c>
+      <c r="H92" s="3">
+        <v>0</v>
+      </c>
+      <c r="I92" s="3">
+        <v>0</v>
+      </c>
+      <c r="J92" s="3">
+        <v>0</v>
+      </c>
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3">
+        <v>1385</v>
+      </c>
+      <c r="M92" s="1">
+        <v>2006</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3"/>
+      <c r="S92" s="3"/>
+      <c r="T92" s="3"/>
+      <c r="U92" s="3"/>
+      <c r="V92" s="3"/>
+      <c r="W92" s="3"/>
+      <c r="X92" s="3"/>
+      <c r="Y92" s="3"/>
+      <c r="Z92" s="3"/>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" t="s">
+        <v>21</v>
+      </c>
+      <c r="C93" s="3">
+        <v>0</v>
+      </c>
+      <c r="D93" s="3">
+        <v>0</v>
+      </c>
+      <c r="E93" s="3">
+        <v>1412</v>
+      </c>
+      <c r="F93" s="3">
+        <v>352</v>
+      </c>
+      <c r="G93" s="1">
+        <v>1255</v>
+      </c>
+      <c r="H93" s="3">
+        <v>3934</v>
+      </c>
+      <c r="I93" s="1">
+        <v>1255</v>
+      </c>
+      <c r="J93" s="3">
+        <v>1172</v>
+      </c>
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3">
+        <v>4170</v>
+      </c>
+      <c r="M93" s="1">
+        <v>1947</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+      <c r="P93" s="3"/>
+      <c r="Q93" s="3"/>
+      <c r="R93" s="3"/>
+      <c r="S93" s="3"/>
+      <c r="T93" s="3"/>
+      <c r="U93" s="3"/>
+      <c r="V93" s="3"/>
+      <c r="W93" s="3"/>
+      <c r="X93" s="3"/>
+      <c r="Y93" s="3"/>
+      <c r="Z93" s="3"/>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94" s="3">
+        <v>0</v>
+      </c>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>336</v>
+      </c>
+      <c r="G94" s="1">
+        <v>1509</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="1">
+        <v>1509</v>
+      </c>
+      <c r="J94" s="3">
+        <v>942</v>
+      </c>
+      <c r="K94" s="3">
+        <v>1660</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="1">
+        <v>589</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3"/>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3"/>
+      <c r="S94" s="3"/>
+      <c r="T94" s="3"/>
+      <c r="U94" s="3"/>
+      <c r="V94" s="3"/>
+      <c r="W94" s="3"/>
+      <c r="X94" s="3"/>
+      <c r="Y94" s="3"/>
+      <c r="Z94" s="3"/>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" s="3">
+        <v>498</v>
+      </c>
+      <c r="D95" s="3">
+        <v>0</v>
+      </c>
+      <c r="E95" s="3">
+        <v>247</v>
+      </c>
+      <c r="F95" s="3">
+        <v>150</v>
+      </c>
+      <c r="G95" s="1">
+        <v>484</v>
+      </c>
+      <c r="H95" s="3">
+        <v>0</v>
+      </c>
+      <c r="I95" s="1">
+        <v>484</v>
+      </c>
+      <c r="J95" s="3">
+        <v>0</v>
+      </c>
+      <c r="K95" s="3">
+        <v>0</v>
+      </c>
+      <c r="L95" s="3">
+        <v>0</v>
+      </c>
+      <c r="M95" s="1">
+        <v>42</v>
+      </c>
+      <c r="N95" s="3">
+        <v>0</v>
+      </c>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" t="s">
+        <v>24</v>
+      </c>
+      <c r="C96" s="3">
+        <v>0</v>
+      </c>
+      <c r="D96" s="3">
+        <v>910</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
+        <v>2112</v>
+      </c>
+      <c r="G96" s="1">
+        <v>2006</v>
+      </c>
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="1">
+        <v>2006</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="1">
+        <v>2006</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>63</v>
+      </c>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3"/>
+      <c r="S96" s="3"/>
+      <c r="T96" s="3"/>
+      <c r="U96" s="3"/>
+      <c r="V96" s="3"/>
+      <c r="W96" s="3"/>
+      <c r="X96" s="3"/>
+      <c r="Y96" s="3"/>
+      <c r="Z96" s="3"/>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" t="s">
+        <v>25</v>
+      </c>
+      <c r="C97" s="3">
+        <v>0</v>
+      </c>
+      <c r="D97" s="3">
+        <v>154</v>
+      </c>
+      <c r="E97" s="3">
+        <v>0</v>
+      </c>
+      <c r="F97" s="3">
+        <v>0</v>
+      </c>
+      <c r="G97" s="1">
+        <v>1947</v>
+      </c>
+      <c r="H97" s="3">
+        <v>0</v>
+      </c>
+      <c r="I97" s="1">
+        <v>1947</v>
+      </c>
+      <c r="J97" s="3">
+        <v>0</v>
+      </c>
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="1">
+        <v>1947</v>
+      </c>
+      <c r="M97" s="3">
+        <v>885</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
+      <c r="Q97" s="3"/>
+      <c r="R97" s="3"/>
+      <c r="S97" s="3"/>
+      <c r="T97" s="3"/>
+      <c r="U97" s="3"/>
+      <c r="V97" s="3"/>
+      <c r="W97" s="3"/>
+      <c r="X97" s="3"/>
+      <c r="Y97" s="3"/>
+      <c r="Z97" s="3"/>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" t="s">
+        <v>26</v>
+      </c>
+      <c r="C98" s="3">
+        <v>3839</v>
+      </c>
+      <c r="D98" s="3">
+        <v>0</v>
+      </c>
+      <c r="E98" s="3">
+        <v>0</v>
+      </c>
+      <c r="F98" s="3">
+        <v>261</v>
+      </c>
+      <c r="G98" s="1">
+        <v>589</v>
+      </c>
+      <c r="H98" s="3">
+        <v>0</v>
+      </c>
+      <c r="I98" s="1">
+        <v>589</v>
+      </c>
+      <c r="J98" s="3">
+        <v>793</v>
+      </c>
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="1">
+        <v>589</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+      <c r="P98" s="3"/>
+      <c r="Q98" s="3"/>
+      <c r="R98" s="3"/>
+      <c r="S98" s="3"/>
+      <c r="T98" s="3"/>
+      <c r="U98" s="3"/>
+      <c r="V98" s="3"/>
+      <c r="W98" s="3"/>
+      <c r="X98" s="3"/>
+      <c r="Y98" s="3"/>
+      <c r="Z98" s="3"/>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" t="s">
+        <v>27</v>
+      </c>
+      <c r="C99" s="3">
+        <v>350</v>
+      </c>
+      <c r="D99" s="3">
+        <v>0</v>
+      </c>
+      <c r="E99" s="3">
+        <v>0</v>
+      </c>
+      <c r="F99" s="3">
+        <v>972</v>
+      </c>
+      <c r="G99" s="1">
+        <v>42</v>
+      </c>
+      <c r="H99" s="3">
+        <v>0</v>
+      </c>
+      <c r="I99" s="1">
+        <v>42</v>
+      </c>
+      <c r="J99" s="3">
+        <v>0</v>
+      </c>
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="1">
+        <v>42</v>
+      </c>
+      <c r="M99" s="3">
+        <v>77</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
+      <c r="Q99" s="3"/>
+      <c r="R99" s="3"/>
+      <c r="S99" s="3"/>
+      <c r="T99" s="3"/>
+      <c r="U99" s="3"/>
+      <c r="V99" s="3"/>
+      <c r="W99" s="3"/>
+      <c r="X99" s="3"/>
+      <c r="Y99" s="3"/>
+      <c r="Z99" s="3"/>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" t="s">
+        <v>28</v>
+      </c>
+      <c r="C100" s="3">
+        <v>0</v>
+      </c>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1082</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="1">
+        <v>900</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="1">
+        <v>900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>1139</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>637</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3"/>
+      <c r="P100" s="3"/>
+      <c r="Q100" s="3"/>
+      <c r="R100" s="3"/>
+      <c r="S100" s="3"/>
+      <c r="T100" s="3"/>
+      <c r="U100" s="3"/>
+      <c r="V100" s="3"/>
+      <c r="W100" s="3"/>
+      <c r="X100" s="3"/>
+      <c r="Y100" s="3"/>
+      <c r="Z100" s="3"/>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" t="s">
+        <v>21</v>
+      </c>
+      <c r="C101" s="3">
+        <v>1065</v>
+      </c>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>784</v>
+      </c>
+      <c r="H101" s="3">
+        <v>79</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>1182</v>
+      </c>
+      <c r="N101" s="3">
+        <v>2712</v>
+      </c>
+      <c r="O101" s="3"/>
+      <c r="P101" s="3"/>
+      <c r="Q101" s="3"/>
+      <c r="R101" s="3"/>
+      <c r="S101" s="3"/>
+      <c r="T101" s="3"/>
+      <c r="U101" s="3"/>
+      <c r="V101" s="3"/>
+      <c r="W101" s="3"/>
+      <c r="X101" s="3"/>
+      <c r="Y101" s="3"/>
+      <c r="Z101" s="3"/>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" t="s">
+        <v>22</v>
+      </c>
+      <c r="C102" s="3">
+        <v>0</v>
+      </c>
+      <c r="D102" s="3">
+        <v>819</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>244</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>158</v>
+      </c>
+      <c r="N102" s="3">
+        <v>1193</v>
+      </c>
+      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
+      <c r="R102" s="3"/>
+      <c r="S102" s="3"/>
+      <c r="T102" s="3"/>
+      <c r="U102" s="3"/>
+      <c r="V102" s="3"/>
+      <c r="W102" s="3"/>
+      <c r="X102" s="3"/>
+      <c r="Y102" s="3"/>
+      <c r="Z102" s="3"/>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" t="s">
+        <v>24</v>
+      </c>
+      <c r="C103" s="3">
+        <v>0</v>
+      </c>
+      <c r="D103" s="3">
+        <v>0</v>
+      </c>
+      <c r="E103" s="3">
+        <v>0</v>
+      </c>
+      <c r="F103" s="3">
+        <v>1471</v>
+      </c>
+      <c r="G103" s="3">
+        <v>0</v>
+      </c>
+      <c r="H103" s="3">
+        <v>609</v>
+      </c>
+      <c r="I103" s="3">
+        <v>0</v>
+      </c>
+      <c r="J103" s="3">
+        <v>0</v>
+      </c>
+      <c r="K103" s="3">
+        <v>0</v>
+      </c>
+      <c r="L103" s="3">
+        <v>169</v>
+      </c>
+      <c r="M103" s="3">
+        <v>0</v>
+      </c>
+      <c r="N103" s="3">
+        <v>0</v>
+      </c>
+      <c r="O103" s="3"/>
+      <c r="P103" s="3"/>
+      <c r="Q103" s="3"/>
+      <c r="R103" s="3"/>
+      <c r="S103" s="3"/>
+      <c r="T103" s="3"/>
+      <c r="U103" s="3"/>
+      <c r="V103" s="3"/>
+      <c r="W103" s="3"/>
+      <c r="X103" s="3"/>
+      <c r="Y103" s="3"/>
+      <c r="Z103" s="3"/>
+    </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104" s="3">
+        <v>447</v>
+      </c>
+      <c r="D104" s="3">
+        <v>0</v>
+      </c>
+      <c r="E104" s="3">
+        <v>0</v>
+      </c>
+      <c r="F104" s="3">
+        <v>0</v>
+      </c>
+      <c r="G104" s="3">
+        <v>0</v>
+      </c>
+      <c r="H104" s="3">
+        <v>1625</v>
+      </c>
+      <c r="I104" s="3">
+        <v>0</v>
+      </c>
+      <c r="J104" s="3">
+        <v>0</v>
+      </c>
+      <c r="K104" s="3">
+        <v>478</v>
+      </c>
+      <c r="L104" s="3">
+        <v>0</v>
+      </c>
+      <c r="M104" s="3">
+        <v>0</v>
+      </c>
+      <c r="N104" s="3">
+        <v>0</v>
+      </c>
+      <c r="O104" s="3"/>
+      <c r="P104" s="3"/>
+      <c r="Q104" s="3"/>
+      <c r="R104" s="3"/>
+      <c r="S104" s="3"/>
+      <c r="T104" s="3"/>
+      <c r="U104" s="3"/>
+      <c r="V104" s="3"/>
+      <c r="W104" s="3"/>
+      <c r="X104" s="3"/>
+      <c r="Y104" s="3"/>
+      <c r="Z104" s="3"/>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" t="s">
+        <v>26</v>
+      </c>
+      <c r="C105" s="3">
+        <v>473</v>
+      </c>
+      <c r="D105" s="3">
+        <v>103</v>
+      </c>
+      <c r="E105" s="3">
+        <v>730</v>
+      </c>
+      <c r="F105" s="3">
+        <v>203</v>
+      </c>
+      <c r="G105" s="3">
+        <v>265</v>
+      </c>
+      <c r="H105" s="3">
+        <v>3627</v>
+      </c>
+      <c r="I105" s="3">
+        <v>0</v>
+      </c>
+      <c r="J105" s="3">
+        <v>0</v>
+      </c>
+      <c r="K105" s="3">
+        <v>0</v>
+      </c>
+      <c r="L105" s="3">
+        <v>0</v>
+      </c>
+      <c r="M105" s="3">
+        <v>0</v>
+      </c>
+      <c r="N105" s="3">
+        <v>0</v>
+      </c>
+      <c r="O105" s="3"/>
+      <c r="P105" s="3"/>
+      <c r="Q105" s="3"/>
+      <c r="R105" s="3"/>
+      <c r="S105" s="3"/>
+      <c r="T105" s="3"/>
+      <c r="U105" s="3"/>
+      <c r="V105" s="3"/>
+      <c r="W105" s="3"/>
+      <c r="X105" s="3"/>
+      <c r="Y105" s="3"/>
+      <c r="Z105" s="3"/>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" t="s">
+        <v>27</v>
+      </c>
+      <c r="C106" s="3">
+        <v>0</v>
+      </c>
+      <c r="D106" s="3">
+        <v>0</v>
+      </c>
+      <c r="E106" s="3">
+        <v>111</v>
+      </c>
+      <c r="F106" s="3">
+        <v>0</v>
+      </c>
+      <c r="G106" s="3">
+        <v>0</v>
+      </c>
+      <c r="H106" s="3">
+        <v>940</v>
+      </c>
+      <c r="I106" s="3">
+        <v>0</v>
+      </c>
+      <c r="J106" s="3">
+        <v>0</v>
+      </c>
+      <c r="K106" s="3">
+        <v>877</v>
+      </c>
+      <c r="L106" s="3">
+        <v>0</v>
+      </c>
+      <c r="M106" s="3">
+        <v>0</v>
+      </c>
+      <c r="N106" s="3">
+        <v>0</v>
+      </c>
+      <c r="O106" s="3"/>
+      <c r="P106" s="3"/>
+      <c r="Q106" s="3"/>
+      <c r="R106" s="3"/>
+      <c r="S106" s="3"/>
+      <c r="T106" s="3"/>
+      <c r="U106" s="3"/>
+      <c r="V106" s="3"/>
+      <c r="W106" s="3"/>
+      <c r="X106" s="3"/>
+      <c r="Y106" s="3"/>
+      <c r="Z106" s="3"/>
+    </row>
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" t="s">
+        <v>28</v>
+      </c>
+      <c r="C107" s="3">
+        <v>489</v>
+      </c>
+      <c r="D107" s="3">
+        <v>0</v>
+      </c>
+      <c r="E107" s="3">
+        <v>130</v>
+      </c>
+      <c r="F107" s="3">
+        <v>0</v>
+      </c>
+      <c r="G107" s="3">
+        <v>0</v>
+      </c>
+      <c r="H107" s="3">
+        <v>0</v>
+      </c>
+      <c r="I107" s="3">
+        <v>0</v>
+      </c>
+      <c r="J107" s="3">
+        <v>104</v>
+      </c>
+      <c r="K107" s="3">
+        <v>0</v>
+      </c>
+      <c r="L107" s="3">
+        <v>0</v>
+      </c>
+      <c r="M107" s="3">
+        <v>0</v>
+      </c>
+      <c r="N107" s="3">
+        <v>0</v>
+      </c>
+      <c r="O107" s="3"/>
+      <c r="P107" s="3"/>
+      <c r="Q107" s="3"/>
+      <c r="R107" s="3"/>
+      <c r="S107" s="3"/>
+      <c r="T107" s="3"/>
+      <c r="U107" s="3"/>
+      <c r="V107" s="3"/>
+      <c r="W107" s="3"/>
+      <c r="X107" s="3"/>
+      <c r="Y107" s="3"/>
+      <c r="Z107" s="3"/>
+    </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>19</v>
+      </c>
+      <c r="B108" t="s">
+        <v>21</v>
+      </c>
+      <c r="C108" s="3">
+        <v>4090</v>
+      </c>
+      <c r="D108" s="3">
+        <v>0</v>
+      </c>
+      <c r="E108" s="3">
+        <v>0</v>
+      </c>
+      <c r="F108" s="3">
+        <v>0</v>
+      </c>
+      <c r="G108" s="3">
+        <v>0</v>
+      </c>
+      <c r="H108" s="3">
+        <v>0</v>
+      </c>
+      <c r="I108" s="3">
+        <v>0</v>
+      </c>
+      <c r="J108" s="3">
+        <v>119</v>
+      </c>
+      <c r="K108" s="3">
+        <v>0</v>
+      </c>
+      <c r="L108" s="3">
+        <v>0</v>
+      </c>
+      <c r="M108" s="3">
+        <v>0</v>
+      </c>
+      <c r="N108" s="3">
+        <v>0</v>
+      </c>
+      <c r="O108" s="3"/>
+      <c r="P108" s="3"/>
+      <c r="Q108" s="3"/>
+      <c r="R108" s="3"/>
+      <c r="S108" s="3"/>
+      <c r="T108" s="3"/>
+      <c r="U108" s="3"/>
+      <c r="V108" s="3"/>
+      <c r="W108" s="3"/>
+      <c r="X108" s="3"/>
+      <c r="Y108" s="3"/>
+      <c r="Z108" s="3"/>
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>19</v>
+      </c>
+      <c r="B109" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109" s="3">
+        <v>0</v>
+      </c>
+      <c r="D109" s="3">
+        <v>0</v>
+      </c>
+      <c r="E109" s="3">
+        <v>0</v>
+      </c>
+      <c r="F109" s="3">
+        <v>435</v>
+      </c>
+      <c r="G109" s="3">
+        <v>0</v>
+      </c>
+      <c r="H109" s="3">
+        <v>402</v>
+      </c>
+      <c r="I109" s="3">
+        <v>0</v>
+      </c>
+      <c r="J109" s="3">
+        <v>476</v>
+      </c>
+      <c r="K109" s="3">
+        <v>164</v>
+      </c>
+      <c r="L109" s="3">
+        <v>0</v>
+      </c>
+      <c r="M109" s="3">
+        <v>524</v>
+      </c>
+      <c r="N109" s="3">
+        <v>0</v>
+      </c>
+      <c r="O109" s="3"/>
+      <c r="P109" s="3"/>
+      <c r="Q109" s="3"/>
+      <c r="R109" s="3"/>
+      <c r="S109" s="3"/>
+      <c r="T109" s="3"/>
+      <c r="U109" s="3"/>
+      <c r="V109" s="3"/>
+      <c r="W109" s="3"/>
+      <c r="X109" s="3"/>
+      <c r="Y109" s="3"/>
+      <c r="Z109" s="3"/>
+    </row>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>19</v>
+      </c>
+      <c r="B110" t="s">
+        <v>24</v>
+      </c>
+      <c r="C110" s="3">
+        <v>0</v>
+      </c>
+      <c r="D110" s="3">
+        <v>433</v>
+      </c>
+      <c r="E110" s="3">
+        <v>0</v>
+      </c>
+      <c r="F110" s="3">
+        <v>0</v>
+      </c>
+      <c r="G110" s="3">
+        <v>0</v>
+      </c>
+      <c r="H110" s="3">
+        <v>0</v>
+      </c>
+      <c r="I110" s="3">
+        <v>0</v>
+      </c>
+      <c r="J110" s="3">
+        <v>0</v>
+      </c>
+      <c r="K110" s="3">
+        <v>82</v>
+      </c>
+      <c r="L110" s="3">
+        <v>0</v>
+      </c>
+      <c r="M110" s="3">
+        <v>0</v>
+      </c>
+      <c r="N110" s="3">
+        <v>0</v>
+      </c>
+      <c r="O110" s="3"/>
+      <c r="P110" s="3"/>
+      <c r="Q110" s="3"/>
+      <c r="R110" s="3"/>
+      <c r="S110" s="3"/>
+      <c r="T110" s="3"/>
+      <c r="U110" s="3"/>
+      <c r="V110" s="3"/>
+      <c r="W110" s="3"/>
+      <c r="X110" s="3"/>
+      <c r="Y110" s="3"/>
+      <c r="Z110" s="3"/>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>19</v>
+      </c>
+      <c r="B111" t="s">
+        <v>27</v>
+      </c>
+      <c r="C111" s="3">
+        <v>0</v>
+      </c>
+      <c r="D111" s="3">
+        <v>57</v>
+      </c>
+      <c r="E111" s="3">
+        <v>0</v>
+      </c>
+      <c r="F111" s="3">
+        <v>573</v>
+      </c>
+      <c r="G111" s="3">
+        <v>0</v>
+      </c>
+      <c r="H111" s="3">
+        <v>0</v>
+      </c>
+      <c r="I111" s="3">
+        <v>0</v>
+      </c>
+      <c r="J111" s="3">
+        <v>0</v>
+      </c>
+      <c r="K111" s="3">
+        <v>1377</v>
+      </c>
+      <c r="L111" s="3">
+        <v>0</v>
+      </c>
+      <c r="M111" s="1">
+        <v>2006</v>
+      </c>
+      <c r="N111" s="3">
+        <v>0</v>
+      </c>
+      <c r="O111" s="3"/>
+      <c r="P111" s="3"/>
+      <c r="Q111" s="3"/>
+      <c r="R111" s="3"/>
+      <c r="S111" s="3"/>
+      <c r="T111" s="3"/>
+      <c r="U111" s="3"/>
+      <c r="V111" s="3"/>
+      <c r="W111" s="3"/>
+      <c r="X111" s="3"/>
+      <c r="Y111" s="3"/>
+      <c r="Z111" s="3"/>
+    </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>19</v>
+      </c>
+      <c r="B112" t="s">
+        <v>28</v>
+      </c>
+      <c r="C112" s="3">
+        <v>28</v>
+      </c>
+      <c r="D112" s="3">
+        <v>421</v>
+      </c>
+      <c r="E112" s="3">
+        <v>0</v>
+      </c>
+      <c r="F112" s="3">
+        <v>0</v>
+      </c>
+      <c r="G112" s="1">
+        <v>2006</v>
+      </c>
+      <c r="H112" s="3">
+        <v>0</v>
+      </c>
+      <c r="I112" s="3">
+        <v>0</v>
+      </c>
+      <c r="J112" s="3">
+        <v>0</v>
+      </c>
+      <c r="K112" s="3">
+        <v>0</v>
+      </c>
+      <c r="L112" s="3">
+        <v>0</v>
+      </c>
+      <c r="M112" s="1">
+        <v>1947</v>
+      </c>
+      <c r="N112" s="3">
+        <v>0</v>
+      </c>
+      <c r="O112" s="3"/>
+      <c r="P112" s="3"/>
+      <c r="Q112" s="3"/>
+      <c r="R112" s="3"/>
+      <c r="S112" s="3"/>
+      <c r="T112" s="3"/>
+      <c r="U112" s="3"/>
+      <c r="V112" s="3"/>
+      <c r="W112" s="3"/>
+      <c r="X112" s="3"/>
+      <c r="Y112" s="3"/>
+      <c r="Z112" s="3"/>
+    </row>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>18</v>
+      </c>
+      <c r="B113" t="s">
+        <v>21</v>
+      </c>
+      <c r="C113" s="3">
+        <v>0</v>
+      </c>
+      <c r="D113" s="3">
+        <v>0</v>
+      </c>
+      <c r="E113" s="3">
+        <v>0</v>
+      </c>
+      <c r="F113" s="3">
+        <v>436</v>
+      </c>
+      <c r="G113" s="1">
+        <v>1947</v>
+      </c>
+      <c r="H113" s="3">
+        <v>0</v>
+      </c>
+      <c r="I113" s="3">
+        <v>0</v>
+      </c>
+      <c r="J113" s="3">
+        <v>0</v>
+      </c>
+      <c r="K113" s="3">
+        <v>0</v>
+      </c>
+      <c r="L113" s="3">
+        <v>0</v>
+      </c>
+      <c r="M113" s="1">
+        <v>589</v>
+      </c>
+      <c r="N113" s="3">
+        <v>0</v>
+      </c>
+      <c r="O113" s="3"/>
+      <c r="P113" s="3"/>
+      <c r="Q113" s="3"/>
+      <c r="R113" s="3"/>
+      <c r="S113" s="3"/>
+      <c r="T113" s="3"/>
+      <c r="U113" s="3"/>
+      <c r="V113" s="3"/>
+      <c r="W113" s="3"/>
+      <c r="X113" s="3"/>
+      <c r="Y113" s="3"/>
+      <c r="Z113" s="3"/>
+    </row>
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>18</v>
+      </c>
+      <c r="B114" t="s">
+        <v>23</v>
+      </c>
+      <c r="C114" s="3">
+        <v>0</v>
+      </c>
+      <c r="D114" s="3">
+        <v>725</v>
+      </c>
+      <c r="E114" s="3">
+        <v>0</v>
+      </c>
+      <c r="F114" s="3">
+        <v>244</v>
+      </c>
+      <c r="G114" s="1">
+        <v>589</v>
+      </c>
+      <c r="H114" s="3">
+        <v>0</v>
+      </c>
+      <c r="I114" s="3">
+        <v>0</v>
+      </c>
+      <c r="J114" s="3">
+        <v>606</v>
+      </c>
+      <c r="K114" s="1">
+        <v>2006</v>
+      </c>
+      <c r="L114" s="3">
+        <v>0</v>
+      </c>
+      <c r="M114" s="1">
+        <v>42</v>
+      </c>
+      <c r="N114" s="3">
+        <v>0</v>
+      </c>
+      <c r="O114" s="3"/>
+      <c r="P114" s="3"/>
+      <c r="Q114" s="3"/>
+      <c r="R114" s="3"/>
+      <c r="S114" s="3"/>
+      <c r="T114" s="3"/>
+      <c r="U114" s="3"/>
+      <c r="V114" s="3"/>
+      <c r="W114" s="3"/>
+      <c r="X114" s="3"/>
+      <c r="Y114" s="3"/>
+      <c r="Z114" s="3"/>
+    </row>
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>18</v>
+      </c>
+      <c r="B115" t="s">
+        <v>24</v>
+      </c>
+      <c r="C115" s="3">
+        <v>0</v>
+      </c>
+      <c r="D115" s="3">
+        <v>0</v>
+      </c>
+      <c r="E115" s="3">
+        <v>0</v>
+      </c>
+      <c r="F115" s="3">
+        <v>225</v>
+      </c>
+      <c r="G115" s="1">
+        <v>42</v>
+      </c>
+      <c r="H115" s="3">
+        <v>0</v>
+      </c>
+      <c r="I115" s="3">
+        <v>535</v>
+      </c>
+      <c r="J115" s="3">
+        <v>0</v>
+      </c>
+      <c r="K115" s="1">
+        <v>1947</v>
+      </c>
+      <c r="L115" s="3">
+        <v>0</v>
+      </c>
+      <c r="M115" s="3">
+        <v>0</v>
+      </c>
+      <c r="N115" s="3">
+        <v>359</v>
+      </c>
+      <c r="O115" s="3"/>
+      <c r="P115" s="3"/>
+      <c r="Q115" s="3"/>
+      <c r="R115" s="3"/>
+      <c r="S115" s="3"/>
+      <c r="T115" s="3"/>
+      <c r="U115" s="3"/>
+      <c r="V115" s="3"/>
+      <c r="W115" s="3"/>
+      <c r="X115" s="3"/>
+      <c r="Y115" s="3"/>
+      <c r="Z115" s="3"/>
+    </row>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>18</v>
+      </c>
+      <c r="B116" t="s">
+        <v>28</v>
+      </c>
+      <c r="C116" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D116" s="3">
+        <v>0</v>
+      </c>
+      <c r="E116" s="3">
+        <v>0</v>
+      </c>
+      <c r="F116" s="3">
+        <v>813</v>
+      </c>
+      <c r="G116" s="3">
+        <v>0</v>
+      </c>
+      <c r="H116" s="3">
+        <v>349</v>
+      </c>
+      <c r="I116" s="3">
+        <v>0</v>
+      </c>
+      <c r="J116" s="3">
+        <v>0</v>
+      </c>
+      <c r="K116" s="1">
+        <v>589</v>
+      </c>
+      <c r="L116" s="3">
+        <v>0</v>
+      </c>
+      <c r="M116" s="3">
+        <v>0</v>
+      </c>
+      <c r="N116" s="3">
+        <v>40</v>
+      </c>
+      <c r="O116" s="3"/>
+      <c r="P116" s="3"/>
+      <c r="Q116" s="3"/>
+      <c r="R116" s="3"/>
+      <c r="S116" s="3"/>
+      <c r="T116" s="3"/>
+      <c r="U116" s="3"/>
+      <c r="V116" s="3"/>
+      <c r="W116" s="3"/>
+      <c r="X116" s="3"/>
+      <c r="Y116" s="3"/>
+      <c r="Z116" s="3"/>
+    </row>
+    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>15</v>
+      </c>
+      <c r="B117" t="s">
+        <v>22</v>
+      </c>
+      <c r="C117" s="1">
+        <v>1947</v>
+      </c>
+      <c r="D117" s="3">
+        <v>0</v>
+      </c>
+      <c r="E117" s="1">
+        <v>2006</v>
+      </c>
+      <c r="F117" s="3">
+        <v>1697</v>
+      </c>
+      <c r="G117" s="3">
+        <v>0</v>
+      </c>
+      <c r="H117" s="3">
+        <v>1916</v>
+      </c>
+      <c r="I117" s="3">
+        <v>764</v>
+      </c>
+      <c r="J117" s="3">
+        <v>0</v>
+      </c>
+      <c r="K117" s="1">
+        <v>42</v>
+      </c>
+      <c r="L117" s="3">
+        <v>0</v>
+      </c>
+      <c r="M117" s="3">
+        <v>0</v>
+      </c>
+      <c r="N117" s="3">
+        <v>0</v>
+      </c>
+      <c r="O117" s="3"/>
+      <c r="P117" s="3"/>
+      <c r="Q117" s="3"/>
+      <c r="R117" s="3"/>
+      <c r="S117" s="3"/>
+      <c r="T117" s="3"/>
+      <c r="U117" s="3"/>
+      <c r="V117" s="3"/>
+      <c r="W117" s="3"/>
+      <c r="X117" s="3"/>
+      <c r="Y117" s="3"/>
+      <c r="Z117" s="3"/>
+    </row>
+    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>15</v>
+      </c>
+      <c r="B118" t="s">
+        <v>23</v>
+      </c>
+      <c r="C118" s="1">
+        <v>589</v>
+      </c>
+      <c r="D118" s="3">
+        <v>0</v>
+      </c>
+      <c r="E118" s="1">
+        <v>1947</v>
+      </c>
+      <c r="F118" s="3">
+        <v>1575</v>
+      </c>
+      <c r="G118" s="3">
+        <v>0</v>
+      </c>
+      <c r="H118" s="3">
+        <v>784</v>
+      </c>
+      <c r="I118" s="3">
+        <v>0</v>
+      </c>
+      <c r="J118" s="3">
+        <v>0</v>
+      </c>
+      <c r="K118" s="3">
+        <v>0</v>
+      </c>
+      <c r="L118" s="3">
+        <v>349</v>
+      </c>
+      <c r="M118" s="3">
+        <v>0</v>
+      </c>
+      <c r="N118" s="3">
+        <v>388</v>
+      </c>
+      <c r="O118" s="3"/>
+      <c r="P118" s="3"/>
+      <c r="Q118" s="3"/>
+      <c r="R118" s="3"/>
+      <c r="S118" s="3"/>
+      <c r="T118" s="3"/>
+      <c r="U118" s="3"/>
+      <c r="V118" s="3"/>
+      <c r="W118" s="3"/>
+      <c r="X118" s="3"/>
+      <c r="Y118" s="3"/>
+      <c r="Z118" s="3"/>
+    </row>
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>15</v>
+      </c>
+      <c r="B119" t="s">
+        <v>25</v>
+      </c>
+      <c r="C119" s="1">
+        <v>42</v>
+      </c>
+      <c r="D119" s="3">
+        <v>0</v>
+      </c>
+      <c r="E119" s="1">
+        <v>589</v>
+      </c>
+      <c r="F119" s="3">
+        <v>252</v>
+      </c>
+      <c r="G119" s="3">
+        <v>0</v>
+      </c>
+      <c r="H119" s="3">
+        <v>1292</v>
+      </c>
+      <c r="I119" s="3">
+        <v>257</v>
+      </c>
+      <c r="J119" s="3">
+        <v>349</v>
+      </c>
+      <c r="K119" s="3">
+        <v>0</v>
+      </c>
+      <c r="L119" s="3">
+        <v>1916</v>
+      </c>
+      <c r="M119" s="3">
+        <v>0</v>
+      </c>
+      <c r="N119" s="3">
+        <v>0</v>
+      </c>
+      <c r="O119" s="3"/>
+      <c r="P119" s="3"/>
+      <c r="Q119" s="3"/>
+      <c r="R119" s="3"/>
+      <c r="S119" s="3"/>
+      <c r="T119" s="3"/>
+      <c r="U119" s="3"/>
+      <c r="V119" s="3"/>
+      <c r="W119" s="3"/>
+      <c r="X119" s="3"/>
+      <c r="Y119" s="3"/>
+      <c r="Z119" s="3"/>
+    </row>
+    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>15</v>
+      </c>
+      <c r="B120" t="s">
+        <v>26</v>
+      </c>
+      <c r="C120" s="3">
+        <v>0</v>
+      </c>
+      <c r="D120" s="3">
+        <v>0</v>
+      </c>
+      <c r="E120" s="1">
+        <v>42</v>
+      </c>
+      <c r="F120" s="3">
+        <v>0</v>
+      </c>
+      <c r="G120" s="1">
+        <v>2006</v>
+      </c>
+      <c r="H120" s="3">
+        <v>0</v>
+      </c>
+      <c r="I120" s="3">
+        <v>0</v>
+      </c>
+      <c r="J120" s="3">
+        <v>1916</v>
+      </c>
+      <c r="K120" s="3">
+        <v>470</v>
+      </c>
+      <c r="L120" s="3">
+        <v>784</v>
+      </c>
+      <c r="M120" s="3">
+        <v>0</v>
+      </c>
+      <c r="N120" s="3">
+        <v>0</v>
+      </c>
+      <c r="O120" s="3"/>
+      <c r="P120" s="3"/>
+      <c r="Q120" s="3"/>
+      <c r="R120" s="3"/>
+      <c r="S120" s="3"/>
+      <c r="T120" s="3"/>
+      <c r="U120" s="3"/>
+      <c r="V120" s="3"/>
+      <c r="W120" s="3"/>
+      <c r="X120" s="3"/>
+      <c r="Y120" s="3"/>
+      <c r="Z120" s="3"/>
+    </row>
+    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>13</v>
+      </c>
+      <c r="B121" t="s">
+        <v>21</v>
+      </c>
+      <c r="C121" s="3">
+        <v>262</v>
+      </c>
+      <c r="D121" s="3">
+        <v>1274</v>
+      </c>
+      <c r="E121" s="3">
+        <v>302</v>
+      </c>
+      <c r="F121" s="3">
+        <v>2165</v>
+      </c>
+      <c r="G121" s="1">
+        <v>1947</v>
+      </c>
+      <c r="H121" s="3">
+        <v>0</v>
+      </c>
+      <c r="I121" s="3">
+        <v>0</v>
+      </c>
+      <c r="J121" s="3">
+        <v>784</v>
+      </c>
+      <c r="K121" s="3">
+        <v>837</v>
+      </c>
+      <c r="L121" s="3">
+        <v>1292</v>
+      </c>
+      <c r="M121" s="3">
+        <v>349</v>
+      </c>
+      <c r="N121" s="3">
+        <v>0</v>
+      </c>
+      <c r="O121" s="3"/>
+      <c r="P121" s="3"/>
+      <c r="Q121" s="3"/>
+      <c r="R121" s="3"/>
+      <c r="S121" s="3"/>
+      <c r="T121" s="3"/>
+      <c r="U121" s="3"/>
+      <c r="V121" s="3"/>
+      <c r="W121" s="3"/>
+      <c r="X121" s="3"/>
+      <c r="Y121" s="3"/>
+      <c r="Z121" s="3"/>
+    </row>
+    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>13</v>
+      </c>
+      <c r="B122" t="s">
+        <v>22</v>
+      </c>
+      <c r="C122" s="3">
+        <v>361</v>
+      </c>
+      <c r="D122" s="3">
+        <v>0</v>
+      </c>
+      <c r="E122" s="3">
+        <v>86</v>
+      </c>
+      <c r="F122" s="3">
+        <v>1019</v>
+      </c>
+      <c r="G122" s="1">
+        <v>589</v>
+      </c>
+      <c r="H122" s="3">
+        <v>0</v>
+      </c>
+      <c r="I122" s="3">
+        <v>0</v>
+      </c>
+      <c r="J122" s="3">
+        <v>1292</v>
+      </c>
+      <c r="K122" s="3">
+        <v>0</v>
+      </c>
+      <c r="L122" s="3">
+        <v>0</v>
+      </c>
+      <c r="M122" s="3">
+        <v>1916</v>
+      </c>
+      <c r="N122" s="3">
+        <v>0</v>
+      </c>
+      <c r="O122" s="3"/>
+      <c r="P122" s="3"/>
+      <c r="Q122" s="3"/>
+      <c r="R122" s="3"/>
+      <c r="S122" s="3"/>
+      <c r="T122" s="3"/>
+      <c r="U122" s="3"/>
+      <c r="V122" s="3"/>
+      <c r="W122" s="3"/>
+      <c r="X122" s="3"/>
+      <c r="Y122" s="3"/>
+      <c r="Z122" s="3"/>
+    </row>
+    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>13</v>
+      </c>
+      <c r="B123" t="s">
+        <v>23</v>
+      </c>
+      <c r="C123" s="3">
+        <v>1509</v>
+      </c>
+      <c r="D123" s="3">
+        <v>0</v>
+      </c>
+      <c r="E123" s="3">
+        <v>1360</v>
+      </c>
+      <c r="F123" s="3">
+        <v>1851</v>
+      </c>
+      <c r="G123" s="1">
+        <v>42</v>
+      </c>
+      <c r="H123" s="3">
+        <v>0</v>
+      </c>
+      <c r="I123" s="3">
+        <v>0</v>
+      </c>
+      <c r="J123" s="3">
+        <v>0</v>
+      </c>
+      <c r="K123" s="3">
+        <v>1713</v>
+      </c>
+      <c r="L123" s="3">
+        <v>0</v>
+      </c>
+      <c r="M123" s="3">
+        <v>784</v>
+      </c>
+      <c r="N123" s="3">
+        <v>0</v>
+      </c>
+      <c r="O123" s="3"/>
+      <c r="P123" s="3"/>
+      <c r="Q123" s="3"/>
+      <c r="R123" s="3"/>
+      <c r="S123" s="3"/>
+      <c r="T123" s="3"/>
+      <c r="U123" s="3"/>
+      <c r="V123" s="3"/>
+      <c r="W123" s="3"/>
+      <c r="X123" s="3"/>
+      <c r="Y123" s="3"/>
+      <c r="Z123" s="3"/>
+    </row>
+    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>13</v>
+      </c>
+      <c r="B124" t="s">
+        <v>24</v>
+      </c>
+      <c r="C124" s="3">
+        <v>0</v>
+      </c>
+      <c r="D124" s="3">
+        <v>0</v>
+      </c>
+      <c r="E124" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F124" s="3">
+        <v>1715</v>
+      </c>
+      <c r="G124" s="3">
+        <v>0</v>
+      </c>
+      <c r="H124" s="3">
+        <v>0</v>
+      </c>
+      <c r="I124" s="3">
+        <v>159</v>
+      </c>
+      <c r="J124" s="3">
+        <v>0</v>
+      </c>
+      <c r="K124" s="3">
+        <v>2935</v>
+      </c>
+      <c r="L124" s="3">
+        <v>0</v>
+      </c>
+      <c r="M124" s="3">
+        <v>1292</v>
+      </c>
+      <c r="N124" s="3">
+        <v>0</v>
+      </c>
+      <c r="O124" s="3"/>
+      <c r="P124" s="3"/>
+      <c r="Q124" s="3"/>
+      <c r="R124" s="3"/>
+      <c r="S124" s="3"/>
+      <c r="T124" s="3"/>
+      <c r="U124" s="3"/>
+      <c r="V124" s="3"/>
+      <c r="W124" s="3"/>
+      <c r="X124" s="3"/>
+      <c r="Y124" s="3"/>
+      <c r="Z124" s="3"/>
+    </row>
+    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125" t="s">
+        <v>25</v>
+      </c>
+      <c r="C125" s="3">
+        <v>0</v>
+      </c>
+      <c r="D125" s="3">
+        <v>654</v>
+      </c>
+      <c r="E125" s="3">
+        <v>578</v>
+      </c>
+      <c r="F125" s="3">
+        <v>0</v>
+      </c>
+      <c r="G125" s="3">
+        <v>0</v>
+      </c>
+      <c r="H125" s="3">
+        <v>755</v>
+      </c>
+      <c r="I125" s="3">
+        <v>0</v>
+      </c>
+      <c r="J125" s="3">
+        <v>626</v>
+      </c>
+      <c r="K125" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L125" s="3">
+        <v>669</v>
+      </c>
+      <c r="M125" s="3">
+        <v>548</v>
+      </c>
+      <c r="N125" s="3">
+        <v>0</v>
+      </c>
+      <c r="O125" s="3"/>
+      <c r="P125" s="3"/>
+      <c r="Q125" s="3"/>
+      <c r="R125" s="3"/>
+      <c r="S125" s="3"/>
+      <c r="T125" s="3"/>
+      <c r="U125" s="3"/>
+      <c r="V125" s="3"/>
+      <c r="W125" s="3"/>
+      <c r="X125" s="3"/>
+      <c r="Y125" s="3"/>
+      <c r="Z125" s="3"/>
+    </row>
+    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126" t="s">
+        <v>26</v>
+      </c>
+      <c r="C126" s="3">
+        <v>886</v>
+      </c>
+      <c r="D126" s="3">
+        <v>261</v>
+      </c>
+      <c r="E126" s="3">
+        <v>2073</v>
+      </c>
+      <c r="F126" s="3">
+        <v>4178</v>
+      </c>
+      <c r="G126" s="3">
+        <v>349</v>
+      </c>
+      <c r="H126" s="3">
+        <v>838</v>
+      </c>
+      <c r="I126" s="3">
+        <v>2935</v>
+      </c>
+      <c r="J126" s="3">
+        <v>0</v>
+      </c>
+      <c r="K126" s="3">
+        <v>1371</v>
+      </c>
+      <c r="L126" s="3">
+        <v>703</v>
+      </c>
+      <c r="M126" s="3">
+        <v>0</v>
+      </c>
+      <c r="N126" s="3">
+        <v>64</v>
+      </c>
+      <c r="O126" s="3"/>
+      <c r="P126" s="3"/>
+      <c r="Q126" s="3"/>
+      <c r="R126" s="3"/>
+      <c r="S126" s="3"/>
+      <c r="T126" s="3"/>
+      <c r="U126" s="3"/>
+      <c r="V126" s="3"/>
+      <c r="W126" s="3"/>
+      <c r="X126" s="3"/>
+      <c r="Y126" s="3"/>
+      <c r="Z126" s="3"/>
+    </row>
+    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>13</v>
+      </c>
+      <c r="B127" t="s">
+        <v>27</v>
+      </c>
+      <c r="C127" s="3">
+        <v>129</v>
+      </c>
+      <c r="D127" s="3">
+        <v>0</v>
+      </c>
+      <c r="E127" s="3">
+        <v>311</v>
+      </c>
+      <c r="F127" s="3">
+        <v>394</v>
+      </c>
+      <c r="G127" s="3">
+        <v>1916</v>
+      </c>
+      <c r="H127" s="3">
+        <v>0</v>
+      </c>
+      <c r="I127" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J127" s="3">
+        <v>0</v>
+      </c>
+      <c r="K127" s="3">
+        <v>2725</v>
+      </c>
+      <c r="L127" s="3">
+        <v>0</v>
+      </c>
+      <c r="M127" s="3">
+        <v>957</v>
+      </c>
+      <c r="N127" s="3">
+        <v>0</v>
+      </c>
+      <c r="O127" s="3"/>
+      <c r="P127" s="3"/>
+      <c r="Q127" s="3"/>
+      <c r="R127" s="3"/>
+      <c r="S127" s="3"/>
+      <c r="T127" s="3"/>
+      <c r="U127" s="3"/>
+      <c r="V127" s="3"/>
+      <c r="W127" s="3"/>
+      <c r="X127" s="3"/>
+      <c r="Y127" s="3"/>
+      <c r="Z127" s="3"/>
+    </row>
+    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128" t="s">
+        <v>28</v>
+      </c>
+      <c r="C128" s="3">
+        <v>0</v>
+      </c>
+      <c r="D128" s="3">
+        <v>349</v>
+      </c>
+      <c r="E128" s="3">
+        <v>4797</v>
+      </c>
+      <c r="F128" s="3">
+        <v>761</v>
+      </c>
+      <c r="G128" s="3">
+        <v>784</v>
+      </c>
+      <c r="H128" s="3">
+        <v>2445</v>
+      </c>
+      <c r="I128" s="3">
+        <v>1371</v>
+      </c>
+      <c r="J128" s="3">
+        <v>0</v>
+      </c>
+      <c r="K128" s="3">
+        <v>0</v>
+      </c>
+      <c r="L128" s="3">
+        <v>0</v>
+      </c>
+      <c r="M128" s="3">
+        <v>0</v>
+      </c>
+      <c r="N128" s="3">
+        <v>3497</v>
+      </c>
+      <c r="O128" s="3"/>
+      <c r="P128" s="3"/>
+      <c r="Q128" s="3"/>
+      <c r="R128" s="3"/>
+      <c r="S128" s="3"/>
+      <c r="T128" s="3"/>
+      <c r="U128" s="3"/>
+      <c r="V128" s="3"/>
+      <c r="W128" s="3"/>
+      <c r="X128" s="3"/>
+      <c r="Y128" s="3"/>
+      <c r="Z128" s="3"/>
+    </row>
+    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" t="s">
+        <v>21</v>
+      </c>
+      <c r="C129" s="3">
+        <v>890</v>
+      </c>
+      <c r="D129" s="3">
+        <v>1916</v>
+      </c>
+      <c r="E129" s="3">
+        <v>1759</v>
+      </c>
+      <c r="F129" s="3">
+        <v>1037</v>
+      </c>
+      <c r="G129" s="3">
+        <v>1292</v>
+      </c>
+      <c r="H129" s="3">
+        <v>478</v>
+      </c>
+      <c r="I129" s="3">
+        <v>2725</v>
+      </c>
+      <c r="J129" s="3">
+        <v>170</v>
+      </c>
+      <c r="K129" s="3">
+        <v>78</v>
+      </c>
+      <c r="L129" s="3">
+        <v>1730</v>
+      </c>
+      <c r="M129" s="3">
+        <v>1296</v>
+      </c>
+      <c r="N129" s="3">
+        <v>248</v>
+      </c>
+      <c r="O129" s="3"/>
+      <c r="P129" s="3"/>
+      <c r="Q129" s="3"/>
+      <c r="R129" s="3"/>
+      <c r="S129" s="3"/>
+      <c r="T129" s="3"/>
+      <c r="U129" s="3"/>
+      <c r="V129" s="3"/>
+      <c r="W129" s="3"/>
+      <c r="X129" s="3"/>
+      <c r="Y129" s="3"/>
+      <c r="Z129" s="3"/>
+    </row>
+    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>10</v>
+      </c>
+      <c r="B130" t="s">
+        <v>22</v>
+      </c>
+      <c r="C130" s="3">
+        <v>2315</v>
+      </c>
+      <c r="D130" s="3">
+        <v>784</v>
+      </c>
+      <c r="E130" s="3">
+        <v>0</v>
+      </c>
+      <c r="F130" s="3">
+        <v>10845</v>
+      </c>
+      <c r="G130" s="3">
+        <v>0</v>
+      </c>
+      <c r="H130" s="3">
+        <v>0</v>
+      </c>
+      <c r="I130" s="3">
+        <v>0</v>
+      </c>
+      <c r="J130" s="3">
+        <v>572</v>
+      </c>
+      <c r="K130" s="3">
+        <v>0</v>
+      </c>
+      <c r="L130" s="3">
+        <v>0</v>
+      </c>
+      <c r="M130" s="3">
+        <v>1112</v>
+      </c>
+      <c r="N130" s="3">
+        <v>4415</v>
+      </c>
+      <c r="O130" s="3"/>
+      <c r="P130" s="3"/>
+      <c r="Q130" s="3"/>
+      <c r="R130" s="3"/>
+      <c r="S130" s="3"/>
+      <c r="T130" s="3"/>
+      <c r="U130" s="3"/>
+      <c r="V130" s="3"/>
+      <c r="W130" s="3"/>
+      <c r="X130" s="3"/>
+      <c r="Y130" s="3"/>
+      <c r="Z130" s="3"/>
+    </row>
+    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>10</v>
+      </c>
+      <c r="B131" t="s">
+        <v>23</v>
+      </c>
+      <c r="C131" s="3">
+        <v>553</v>
+      </c>
+      <c r="D131" s="3">
+        <v>1292</v>
+      </c>
+      <c r="E131" s="3">
+        <v>949</v>
+      </c>
+      <c r="F131" s="3">
+        <v>0</v>
+      </c>
+      <c r="G131" s="3">
+        <v>0</v>
+      </c>
+      <c r="H131" s="3">
+        <v>88</v>
+      </c>
+      <c r="I131" s="3">
+        <v>0</v>
+      </c>
+      <c r="J131" s="3">
+        <v>0</v>
+      </c>
+      <c r="K131" s="3">
+        <v>0</v>
+      </c>
+      <c r="L131" s="3">
+        <v>0</v>
+      </c>
+      <c r="M131" s="3">
+        <v>448</v>
+      </c>
+      <c r="N131" s="3">
+        <v>2804</v>
+      </c>
+      <c r="O131" s="3"/>
+      <c r="P131" s="3"/>
+      <c r="Q131" s="3"/>
+      <c r="R131" s="3"/>
+      <c r="S131" s="3"/>
+      <c r="T131" s="3"/>
+      <c r="U131" s="3"/>
+      <c r="V131" s="3"/>
+      <c r="W131" s="3"/>
+      <c r="X131" s="3"/>
+      <c r="Y131" s="3"/>
+      <c r="Z131" s="3"/>
+    </row>
+    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>10</v>
+      </c>
+      <c r="B132" t="s">
+        <v>24</v>
+      </c>
+      <c r="C132" s="3">
+        <v>0</v>
+      </c>
+      <c r="D132" s="3">
+        <v>0</v>
+      </c>
+      <c r="E132" s="3">
+        <v>2812</v>
+      </c>
+      <c r="F132" s="3">
+        <v>2523</v>
+      </c>
+      <c r="G132" s="3">
+        <v>0</v>
+      </c>
+      <c r="H132" s="3">
+        <v>473</v>
+      </c>
+      <c r="I132" s="3">
+        <v>905</v>
+      </c>
+      <c r="J132" s="3">
+        <v>62</v>
+      </c>
+      <c r="K132" s="3">
+        <v>0</v>
+      </c>
+      <c r="L132" s="3">
+        <v>0</v>
+      </c>
+      <c r="M132" s="3">
+        <v>0</v>
+      </c>
+      <c r="N132" s="3">
+        <v>437</v>
+      </c>
+      <c r="O132" s="3"/>
+      <c r="P132" s="3"/>
+      <c r="Q132" s="3"/>
+      <c r="R132" s="3"/>
+      <c r="S132" s="3"/>
+      <c r="T132" s="3"/>
+      <c r="U132" s="3"/>
+      <c r="V132" s="3"/>
+      <c r="W132" s="3"/>
+      <c r="X132" s="3"/>
+      <c r="Y132" s="3"/>
+      <c r="Z132" s="3"/>
+    </row>
+    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>10</v>
+      </c>
+      <c r="B133" t="s">
+        <v>25</v>
+      </c>
+      <c r="C133" s="3">
+        <v>0</v>
+      </c>
+      <c r="D133" s="3">
+        <v>470</v>
+      </c>
+      <c r="E133" s="3">
+        <v>0</v>
+      </c>
+      <c r="F133" s="3">
+        <v>544</v>
+      </c>
+      <c r="G133" s="3">
+        <v>0</v>
+      </c>
+      <c r="H133" s="3">
+        <v>205</v>
+      </c>
+      <c r="I133" s="3">
+        <v>0</v>
+      </c>
+      <c r="J133" s="3">
+        <v>0</v>
+      </c>
+      <c r="K133" s="3">
+        <v>8866</v>
+      </c>
+      <c r="L133" s="3">
+        <v>1645</v>
+      </c>
+      <c r="M133" s="3">
+        <v>408</v>
+      </c>
+      <c r="N133" s="3">
+        <v>558</v>
+      </c>
+      <c r="O133" s="3"/>
+      <c r="P133" s="3"/>
+      <c r="Q133" s="3"/>
+      <c r="R133" s="3"/>
+      <c r="S133" s="3"/>
+      <c r="T133" s="3"/>
+      <c r="U133" s="3"/>
+      <c r="V133" s="3"/>
+      <c r="W133" s="3"/>
+      <c r="X133" s="3"/>
+      <c r="Y133" s="3"/>
+      <c r="Z133" s="3"/>
+    </row>
+    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>10</v>
+      </c>
+      <c r="B134" t="s">
+        <v>27</v>
+      </c>
+      <c r="C134" s="3">
+        <v>951</v>
+      </c>
+      <c r="D134" s="3">
+        <v>1312</v>
+      </c>
+      <c r="E134" s="3">
+        <v>1046</v>
+      </c>
+      <c r="F134" s="3">
+        <v>733</v>
+      </c>
+      <c r="G134" s="3">
+        <v>0</v>
+      </c>
+      <c r="H134" s="3">
+        <v>0</v>
+      </c>
+      <c r="I134" s="3">
+        <v>0</v>
+      </c>
+      <c r="J134" s="3">
+        <v>593</v>
+      </c>
+      <c r="K134" s="3">
+        <v>59</v>
+      </c>
+      <c r="L134" s="3">
+        <v>0</v>
+      </c>
+      <c r="M134" s="3">
+        <v>0</v>
+      </c>
+      <c r="N134" s="3">
+        <v>0</v>
+      </c>
+      <c r="O134" s="3"/>
+      <c r="P134" s="3"/>
+      <c r="Q134" s="3"/>
+      <c r="R134" s="3"/>
+      <c r="S134" s="3"/>
+      <c r="T134" s="3"/>
+      <c r="U134" s="3"/>
+      <c r="V134" s="3"/>
+      <c r="W134" s="3"/>
+      <c r="X134" s="3"/>
+      <c r="Y134" s="3"/>
+      <c r="Z134" s="3"/>
+    </row>
+    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>10</v>
+      </c>
+      <c r="B135" t="s">
+        <v>28</v>
+      </c>
+      <c r="C135" s="3">
+        <v>3370</v>
+      </c>
+      <c r="D135" s="3">
+        <v>1911</v>
+      </c>
+      <c r="E135" s="3">
+        <v>600</v>
+      </c>
+      <c r="F135" s="3">
+        <v>0</v>
+      </c>
+      <c r="G135" s="3">
+        <v>0</v>
+      </c>
+      <c r="H135" s="3">
+        <v>459</v>
+      </c>
+      <c r="I135" s="3">
+        <v>0</v>
+      </c>
+      <c r="J135" s="3">
+        <v>0</v>
+      </c>
+      <c r="K135" s="3">
+        <v>377</v>
+      </c>
+      <c r="L135" s="3">
+        <v>0</v>
+      </c>
+      <c r="M135" s="3">
+        <v>0</v>
+      </c>
+      <c r="N135" s="3">
+        <v>1706</v>
+      </c>
+      <c r="O135" s="3"/>
+      <c r="P135" s="3"/>
+      <c r="Q135" s="3"/>
+      <c r="R135" s="3"/>
+      <c r="S135" s="3"/>
+      <c r="T135" s="3"/>
+      <c r="U135" s="3"/>
+      <c r="V135" s="3"/>
+      <c r="W135" s="3"/>
+      <c r="X135" s="3"/>
+      <c r="Y135" s="3"/>
+      <c r="Z135" s="3"/>
+    </row>
+    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" t="s">
+        <v>21</v>
+      </c>
+      <c r="C136" s="3">
+        <v>2804</v>
+      </c>
+      <c r="D136" s="3">
+        <v>0</v>
+      </c>
+      <c r="E136" s="3">
+        <v>773</v>
+      </c>
+      <c r="F136" s="3">
+        <v>1173</v>
+      </c>
+      <c r="G136" s="3">
+        <v>282</v>
+      </c>
+      <c r="H136" s="3">
+        <v>5222</v>
+      </c>
+      <c r="I136" s="3">
+        <v>0</v>
+      </c>
+      <c r="J136" s="3">
+        <v>0</v>
+      </c>
+      <c r="K136" s="3">
+        <v>0</v>
+      </c>
+      <c r="L136" s="3">
+        <v>0</v>
+      </c>
+      <c r="M136" s="3">
+        <v>1977</v>
+      </c>
+      <c r="N136" s="3">
+        <v>2754</v>
+      </c>
+      <c r="O136" s="3"/>
+      <c r="P136" s="3"/>
+      <c r="Q136" s="3"/>
+      <c r="R136" s="3"/>
+      <c r="S136" s="3"/>
+      <c r="T136" s="3"/>
+      <c r="U136" s="3"/>
+      <c r="V136" s="3"/>
+      <c r="W136" s="3"/>
+      <c r="X136" s="3"/>
+      <c r="Y136" s="3"/>
+      <c r="Z136" s="3"/>
+    </row>
+    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" t="s">
+        <v>22</v>
+      </c>
+      <c r="C137" s="3">
+        <v>437</v>
+      </c>
+      <c r="D137" s="3">
+        <v>0</v>
+      </c>
+      <c r="E137" s="3">
+        <v>0</v>
+      </c>
+      <c r="F137" s="3">
+        <v>2935</v>
+      </c>
+      <c r="G137" s="3">
+        <v>0</v>
+      </c>
+      <c r="H137" s="3">
+        <v>0</v>
+      </c>
+      <c r="I137" s="3">
+        <v>0</v>
+      </c>
+      <c r="J137" s="3">
+        <v>0</v>
+      </c>
+      <c r="K137" s="3">
+        <v>0</v>
+      </c>
+      <c r="L137" s="3">
+        <v>0</v>
+      </c>
+      <c r="M137" s="3">
+        <v>405</v>
+      </c>
+      <c r="N137" s="3">
+        <v>2949</v>
+      </c>
+      <c r="O137" s="3"/>
+      <c r="P137" s="3"/>
+      <c r="Q137" s="3"/>
+      <c r="R137" s="3"/>
+      <c r="S137" s="3"/>
+      <c r="T137" s="3"/>
+      <c r="U137" s="3"/>
+      <c r="V137" s="3"/>
+      <c r="W137" s="3"/>
+      <c r="X137" s="3"/>
+      <c r="Y137" s="3"/>
+      <c r="Z137" s="3"/>
+    </row>
+    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" t="s">
+        <v>23</v>
+      </c>
+      <c r="C138" s="3">
+        <v>558</v>
+      </c>
+      <c r="D138" s="3">
+        <v>0</v>
+      </c>
+      <c r="E138" s="3">
+        <v>0</v>
+      </c>
+      <c r="F138" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G138" s="3">
+        <v>0</v>
+      </c>
+      <c r="H138" s="3">
+        <v>659</v>
+      </c>
+      <c r="I138" s="3">
+        <v>0</v>
+      </c>
+      <c r="J138" s="3">
+        <v>2162</v>
+      </c>
+      <c r="K138" s="3">
+        <v>537</v>
+      </c>
+      <c r="L138" s="3">
+        <v>2668</v>
+      </c>
+      <c r="M138" s="3">
+        <v>0</v>
+      </c>
+      <c r="N138" s="3">
+        <v>51</v>
+      </c>
+      <c r="O138" s="3"/>
+      <c r="P138" s="3"/>
+      <c r="Q138" s="3"/>
+      <c r="R138" s="3"/>
+      <c r="S138" s="3"/>
+      <c r="T138" s="3"/>
+      <c r="U138" s="3"/>
+      <c r="V138" s="3"/>
+      <c r="W138" s="3"/>
+      <c r="X138" s="3"/>
+      <c r="Y138" s="3"/>
+      <c r="Z138" s="3"/>
+    </row>
+    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" t="s">
+        <v>25</v>
+      </c>
+      <c r="C139" s="3">
+        <v>890</v>
+      </c>
+      <c r="D139" s="3">
+        <v>0</v>
+      </c>
+      <c r="E139" s="3">
+        <v>2118</v>
+      </c>
+      <c r="F139" s="3">
+        <v>1371</v>
+      </c>
+      <c r="G139" s="3">
+        <v>0</v>
+      </c>
+      <c r="H139" s="3">
+        <v>1663</v>
+      </c>
+      <c r="I139" s="3">
+        <v>0</v>
+      </c>
+      <c r="J139" s="3">
+        <v>0</v>
+      </c>
+      <c r="K139" s="3">
+        <v>0</v>
+      </c>
+      <c r="L139" s="3">
+        <v>1113</v>
+      </c>
+      <c r="M139" s="3">
+        <v>0</v>
+      </c>
+      <c r="N139" s="3">
+        <v>236</v>
+      </c>
+      <c r="O139" s="3"/>
+      <c r="P139" s="3"/>
+      <c r="Q139" s="3"/>
+      <c r="R139" s="3"/>
+      <c r="S139" s="3"/>
+      <c r="T139" s="3"/>
+      <c r="U139" s="3"/>
+      <c r="V139" s="3"/>
+      <c r="W139" s="3"/>
+      <c r="X139" s="3"/>
+      <c r="Y139" s="3"/>
+      <c r="Z139" s="3"/>
+    </row>
+    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" t="s">
+        <v>26</v>
+      </c>
+      <c r="C140" s="3">
+        <v>2315</v>
+      </c>
+      <c r="D140" s="3">
+        <v>0</v>
+      </c>
+      <c r="E140" s="3">
+        <v>71</v>
+      </c>
+      <c r="F140" s="3">
+        <v>2725</v>
+      </c>
+      <c r="G140" s="3">
+        <v>0</v>
+      </c>
+      <c r="H140" s="3">
+        <v>381</v>
+      </c>
+      <c r="I140" s="3">
+        <v>0</v>
+      </c>
+      <c r="J140" s="3">
+        <v>0</v>
+      </c>
+      <c r="K140" s="3">
+        <v>0</v>
+      </c>
+      <c r="L140" s="3">
+        <v>0</v>
+      </c>
+      <c r="M140" s="3">
+        <v>0</v>
+      </c>
+      <c r="N140" s="3">
+        <v>540</v>
+      </c>
+      <c r="O140" s="3"/>
+      <c r="P140" s="3"/>
+      <c r="Q140" s="3"/>
+      <c r="R140" s="3"/>
+      <c r="S140" s="3"/>
+      <c r="T140" s="3"/>
+      <c r="U140" s="3"/>
+      <c r="V140" s="3"/>
+      <c r="W140" s="3"/>
+      <c r="X140" s="3"/>
+      <c r="Y140" s="3"/>
+      <c r="Z140" s="3"/>
+    </row>
+    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B141" t="s">
+        <v>27</v>
+      </c>
+      <c r="C141" s="3">
+        <v>553</v>
+      </c>
+      <c r="D141" s="3">
+        <v>0</v>
+      </c>
+      <c r="E141" s="3">
+        <v>782</v>
+      </c>
+      <c r="F141" s="3">
+        <v>0</v>
+      </c>
+      <c r="G141" s="3">
+        <v>613</v>
+      </c>
+      <c r="H141" s="3">
+        <v>0</v>
+      </c>
+      <c r="I141" s="3">
+        <v>0</v>
+      </c>
+      <c r="J141" s="3">
+        <v>0</v>
+      </c>
+      <c r="K141" s="3">
+        <v>0</v>
+      </c>
+      <c r="L141" s="3">
+        <v>0</v>
+      </c>
+      <c r="M141" s="3">
+        <v>1288</v>
+      </c>
+      <c r="N141" s="3">
+        <v>0</v>
+      </c>
+      <c r="O141" s="3"/>
+      <c r="P141" s="3"/>
+      <c r="Q141" s="3"/>
+      <c r="R141" s="3"/>
+      <c r="S141" s="3"/>
+      <c r="T141" s="3"/>
+      <c r="U141" s="3"/>
+      <c r="V141" s="3"/>
+      <c r="W141" s="3"/>
+      <c r="X141" s="3"/>
+      <c r="Y141" s="3"/>
+      <c r="Z141" s="3"/>
+    </row>
+    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" t="s">
+        <v>28</v>
+      </c>
+      <c r="C142" s="3">
+        <v>0</v>
+      </c>
+      <c r="D142" s="3">
+        <v>0</v>
+      </c>
+      <c r="E142" s="3">
+        <v>988</v>
+      </c>
+      <c r="F142" s="3">
+        <v>0</v>
+      </c>
+      <c r="G142" s="3">
+        <v>0</v>
+      </c>
+      <c r="H142" s="3">
+        <v>890</v>
+      </c>
+      <c r="I142" s="3">
+        <v>0</v>
+      </c>
+      <c r="J142" s="3">
+        <v>0</v>
+      </c>
+      <c r="K142" s="3">
+        <v>11945</v>
+      </c>
+      <c r="L142" s="3">
+        <v>0</v>
+      </c>
+      <c r="M142" s="3">
+        <v>0</v>
+      </c>
+      <c r="N142" s="3">
+        <v>0</v>
+      </c>
+      <c r="O142" s="3"/>
+      <c r="P142" s="3"/>
+      <c r="Q142" s="3"/>
+      <c r="R142" s="3"/>
+      <c r="S142" s="3"/>
+      <c r="T142" s="3"/>
+      <c r="U142" s="3"/>
+      <c r="V142" s="3"/>
+      <c r="W142" s="3"/>
+      <c r="X142" s="3"/>
+      <c r="Y142" s="3"/>
+      <c r="Z142" s="3"/>
+    </row>
+    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>6</v>
+      </c>
+      <c r="B143" t="s">
+        <v>21</v>
+      </c>
+      <c r="C143" s="3">
+        <v>445</v>
+      </c>
+      <c r="D143" s="3">
+        <v>757</v>
+      </c>
+      <c r="E143" s="3">
+        <v>1464</v>
+      </c>
+      <c r="F143" s="3">
+        <v>930</v>
+      </c>
+      <c r="G143" s="3">
+        <v>0</v>
+      </c>
+      <c r="H143" s="3">
+        <v>2315</v>
+      </c>
+      <c r="I143" s="3">
+        <v>0</v>
+      </c>
+      <c r="J143" s="3">
+        <v>0</v>
+      </c>
+      <c r="K143" s="3">
+        <v>349</v>
+      </c>
+      <c r="L143" s="3">
+        <v>0</v>
+      </c>
+      <c r="M143" s="3">
+        <v>0</v>
+      </c>
+      <c r="N143" s="3">
+        <v>0</v>
+      </c>
+      <c r="O143" s="3"/>
+      <c r="P143" s="3"/>
+      <c r="Q143" s="3"/>
+      <c r="R143" s="3"/>
+      <c r="S143" s="3"/>
+      <c r="T143" s="3"/>
+      <c r="U143" s="3"/>
+      <c r="V143" s="3"/>
+      <c r="W143" s="3"/>
+      <c r="X143" s="3"/>
+      <c r="Y143" s="3"/>
+      <c r="Z143" s="3"/>
+    </row>
+    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>6</v>
+      </c>
+      <c r="B144" t="s">
+        <v>22</v>
+      </c>
+      <c r="C144" s="3">
+        <v>0</v>
+      </c>
+      <c r="D144" s="3">
+        <v>0</v>
+      </c>
+      <c r="E144" s="3">
+        <v>0</v>
+      </c>
+      <c r="F144" s="3">
+        <v>0</v>
+      </c>
+      <c r="G144" s="3">
+        <v>193</v>
+      </c>
+      <c r="H144" s="3">
+        <v>553</v>
+      </c>
+      <c r="I144" s="3">
+        <v>0</v>
+      </c>
+      <c r="J144" s="3">
+        <v>0</v>
+      </c>
+      <c r="K144" s="3">
+        <v>0</v>
+      </c>
+      <c r="L144" s="3">
+        <v>0</v>
+      </c>
+      <c r="M144" s="3">
+        <v>3420</v>
+      </c>
+      <c r="N144" s="3">
+        <v>0</v>
+      </c>
+      <c r="O144" s="3"/>
+      <c r="P144" s="3"/>
+      <c r="Q144" s="3"/>
+      <c r="R144" s="3"/>
+      <c r="S144" s="3"/>
+      <c r="T144" s="3"/>
+      <c r="U144" s="3"/>
+      <c r="V144" s="3"/>
+      <c r="W144" s="3"/>
+      <c r="X144" s="3"/>
+      <c r="Y144" s="3"/>
+      <c r="Z144" s="3"/>
+    </row>
+    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>6</v>
+      </c>
+      <c r="B145" t="s">
+        <v>23</v>
+      </c>
+      <c r="C145" s="3">
+        <v>292</v>
+      </c>
+      <c r="D145" s="3">
+        <v>0</v>
+      </c>
+      <c r="E145" s="3">
+        <v>0</v>
+      </c>
+      <c r="F145" s="3">
+        <v>0</v>
+      </c>
+      <c r="G145" s="3">
+        <v>0</v>
+      </c>
+      <c r="H145" s="3">
+        <v>0</v>
+      </c>
+      <c r="I145" s="3">
+        <v>0</v>
+      </c>
+      <c r="J145" s="3">
+        <v>890</v>
+      </c>
+      <c r="K145" s="3">
+        <v>2935</v>
+      </c>
+      <c r="L145" s="3">
+        <v>2935</v>
+      </c>
+      <c r="M145" s="3">
+        <v>1203</v>
+      </c>
+      <c r="N145" s="3">
+        <v>1203</v>
+      </c>
+      <c r="O145" s="3"/>
+      <c r="P145" s="3"/>
+      <c r="Q145" s="3"/>
+      <c r="R145" s="3"/>
+      <c r="S145" s="3"/>
+      <c r="T145" s="3"/>
+      <c r="U145" s="3"/>
+      <c r="V145" s="3"/>
+      <c r="W145" s="3"/>
+      <c r="X145" s="3"/>
+      <c r="Y145" s="3"/>
+      <c r="Z145" s="3"/>
+    </row>
+    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>6</v>
+      </c>
+      <c r="B146" t="s">
+        <v>24</v>
+      </c>
+      <c r="C146" s="3">
+        <v>0</v>
+      </c>
+      <c r="D146" s="3">
+        <v>0</v>
+      </c>
+      <c r="E146" s="3">
+        <v>1428</v>
+      </c>
+      <c r="F146" s="3">
+        <v>2516</v>
+      </c>
+      <c r="G146" s="3">
+        <v>793</v>
+      </c>
+      <c r="H146" s="3">
+        <v>0</v>
+      </c>
+      <c r="I146" s="3">
+        <v>0</v>
+      </c>
+      <c r="J146" s="3">
+        <v>2315</v>
+      </c>
+      <c r="K146" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L146" s="3">
+        <v>3300</v>
+      </c>
+      <c r="M146" s="3">
+        <v>3542</v>
+      </c>
+      <c r="N146" s="3">
+        <v>3542</v>
+      </c>
+      <c r="O146" s="3"/>
+      <c r="P146" s="3"/>
+      <c r="Q146" s="3"/>
+      <c r="R146" s="3"/>
+      <c r="S146" s="3"/>
+      <c r="T146" s="3"/>
+      <c r="U146" s="3"/>
+      <c r="V146" s="3"/>
+      <c r="W146" s="3"/>
+      <c r="X146" s="3"/>
+      <c r="Y146" s="3"/>
+      <c r="Z146" s="3"/>
+    </row>
+    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>6</v>
+      </c>
+      <c r="B147" t="s">
+        <v>25</v>
+      </c>
+      <c r="C147" s="3">
+        <v>798</v>
+      </c>
+      <c r="D147" s="3">
+        <v>0</v>
+      </c>
+      <c r="E147" s="3">
+        <v>2804</v>
+      </c>
+      <c r="F147" s="3">
+        <v>1205</v>
+      </c>
+      <c r="G147" s="3">
+        <v>0</v>
+      </c>
+      <c r="H147" s="3">
+        <v>0</v>
+      </c>
+      <c r="I147" s="3">
+        <v>0</v>
+      </c>
+      <c r="J147" s="3">
+        <v>553</v>
+      </c>
+      <c r="K147" s="3">
+        <v>1371</v>
+      </c>
+      <c r="L147" s="3">
+        <v>1371</v>
+      </c>
+      <c r="M147" s="3">
+        <v>2190</v>
+      </c>
+      <c r="N147" s="3">
+        <v>2190</v>
+      </c>
+      <c r="O147" s="3"/>
+      <c r="P147" s="3"/>
+      <c r="Q147" s="3"/>
+      <c r="R147" s="3"/>
+      <c r="S147" s="3"/>
+      <c r="T147" s="3"/>
+      <c r="U147" s="3"/>
+      <c r="V147" s="3"/>
+      <c r="W147" s="3"/>
+      <c r="X147" s="3"/>
+      <c r="Y147" s="3"/>
+      <c r="Z147" s="3"/>
+    </row>
+    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>6</v>
+      </c>
+      <c r="B148" t="s">
+        <v>26</v>
+      </c>
+      <c r="C148" s="3">
+        <v>4409</v>
+      </c>
+      <c r="D148" s="3">
+        <v>1026</v>
+      </c>
+      <c r="E148" s="3">
+        <v>437</v>
+      </c>
+      <c r="F148" s="3">
+        <v>3074</v>
+      </c>
+      <c r="G148" s="3">
+        <v>0</v>
+      </c>
+      <c r="H148" s="3">
+        <v>0</v>
+      </c>
+      <c r="I148" s="3">
+        <v>0</v>
+      </c>
+      <c r="J148" s="3">
+        <v>0</v>
+      </c>
+      <c r="K148" s="3">
+        <v>2725</v>
+      </c>
+      <c r="L148" s="3">
+        <v>2725</v>
+      </c>
+      <c r="M148" s="3">
+        <v>3852</v>
+      </c>
+      <c r="N148" s="3">
+        <v>3852</v>
+      </c>
+      <c r="O148" s="3"/>
+      <c r="P148" s="3"/>
+      <c r="Q148" s="3"/>
+      <c r="R148" s="3"/>
+      <c r="S148" s="3"/>
+      <c r="T148" s="3"/>
+      <c r="U148" s="3"/>
+      <c r="V148" s="3"/>
+      <c r="W148" s="3"/>
+      <c r="X148" s="3"/>
+      <c r="Y148" s="3"/>
+      <c r="Z148" s="3"/>
+    </row>
+    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>6</v>
+      </c>
+      <c r="B149" t="s">
+        <v>27</v>
+      </c>
+      <c r="C149" s="3">
+        <v>4777</v>
+      </c>
+      <c r="D149" s="3">
+        <v>526</v>
+      </c>
+      <c r="E149" s="3">
+        <v>558</v>
+      </c>
+      <c r="F149" s="3">
+        <v>849</v>
+      </c>
+      <c r="G149" s="3">
+        <v>174</v>
+      </c>
+      <c r="H149" s="3">
+        <v>0</v>
+      </c>
+      <c r="I149" s="3">
+        <v>439</v>
+      </c>
+      <c r="J149" s="3">
+        <v>1655</v>
+      </c>
+      <c r="K149" s="3">
+        <v>0</v>
+      </c>
+      <c r="L149" s="3">
+        <v>887</v>
+      </c>
+      <c r="M149" s="3">
+        <v>2064</v>
+      </c>
+      <c r="N149" s="3">
+        <v>1015</v>
+      </c>
+      <c r="O149" s="3"/>
+      <c r="P149" s="3"/>
+      <c r="Q149" s="3"/>
+      <c r="R149" s="3"/>
+      <c r="S149" s="3"/>
+      <c r="T149" s="3"/>
+      <c r="U149" s="3"/>
+      <c r="V149" s="3"/>
+      <c r="W149" s="3"/>
+      <c r="X149" s="3"/>
+      <c r="Y149" s="3"/>
+      <c r="Z149" s="3"/>
+    </row>
+    <row r="150" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>6</v>
+      </c>
+      <c r="B150" t="s">
+        <v>28</v>
+      </c>
+      <c r="C150" s="3">
+        <v>245</v>
+      </c>
+      <c r="D150" s="3">
+        <v>0</v>
+      </c>
+      <c r="E150" s="3">
+        <v>2313</v>
+      </c>
+      <c r="F150" s="3">
+        <v>3178</v>
+      </c>
+      <c r="G150" s="3">
+        <v>0</v>
+      </c>
+      <c r="H150" s="3">
+        <v>0</v>
+      </c>
+      <c r="I150" s="3">
+        <v>0</v>
+      </c>
+      <c r="J150" s="3">
+        <v>0</v>
+      </c>
+      <c r="K150" s="3">
+        <v>0</v>
+      </c>
+      <c r="L150" s="3">
+        <v>0</v>
+      </c>
+      <c r="M150" s="3">
+        <v>0</v>
+      </c>
+      <c r="N150" s="3">
+        <v>0</v>
+      </c>
+      <c r="O150" s="3"/>
+      <c r="P150" s="3"/>
+      <c r="Q150" s="3"/>
+      <c r="R150" s="3"/>
+      <c r="S150" s="3"/>
+      <c r="T150" s="3"/>
+      <c r="U150" s="3"/>
+      <c r="V150" s="3"/>
+      <c r="W150" s="3"/>
+      <c r="X150" s="3"/>
+      <c r="Y150" s="3"/>
+      <c r="Z150" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>